--- a/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/778425/Projects/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2AF461-64EF-D740-8AFD-EF6ABF552CCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B456E5D-11AA-F94C-AC21-2DBD3869CCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
-    <sheet name="Case Worker Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
     <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1215">
   <si>
     <t>Region</t>
   </si>
@@ -3378,30 +3378,6 @@
   </si>
   <si>
     <t>Primary Base Location ID</t>
-  </si>
-  <si>
-    <t>Area of Work2 ID</t>
-  </si>
-  <si>
-    <t>Area of Work1 ID</t>
-  </si>
-  <si>
-    <t>Area of Work3 ID</t>
-  </si>
-  <si>
-    <t>Area of Work4 ID</t>
-  </si>
-  <si>
-    <t>Area of Work5 ID</t>
-  </si>
-  <si>
-    <t>Area of Work6 ID</t>
-  </si>
-  <si>
-    <t>Area of Work7 ID</t>
-  </si>
-  <si>
-    <t>Area of Work8 ID</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -3659,6 +3635,60 @@
   </si>
   <si>
     <t>First*Name</t>
+  </si>
+  <si>
+    <t>Case Allocator</t>
+  </si>
+  <si>
+    <t>Task Supervisor</t>
+  </si>
+  <si>
+    <t>Service1</t>
+  </si>
+  <si>
+    <t>Service1 ID</t>
+  </si>
+  <si>
+    <t>Service2</t>
+  </si>
+  <si>
+    <t>Service2 ID</t>
+  </si>
+  <si>
+    <t>Service3</t>
+  </si>
+  <si>
+    <t>Service3 ID</t>
+  </si>
+  <si>
+    <t>Service4</t>
+  </si>
+  <si>
+    <t>Service4 ID</t>
+  </si>
+  <si>
+    <t>Service5</t>
+  </si>
+  <si>
+    <t>Service5 ID</t>
+  </si>
+  <si>
+    <t>Service6</t>
+  </si>
+  <si>
+    <t>Service6 ID</t>
+  </si>
+  <si>
+    <t>Service7</t>
+  </si>
+  <si>
+    <t>Service7 ID</t>
+  </si>
+  <si>
+    <t>Service8</t>
+  </si>
+  <si>
+    <t>Service8 ID</t>
   </si>
 </sst>
 </file>
@@ -4982,7 +5012,7 @@
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="31" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -5766,7 +5796,7 @@
     <row r="29" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -6610,7 +6640,7 @@
     <row r="59" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -7488,34 +7518,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="B2" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="B3" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="B4" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7523,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7531,15 +7561,15 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="B7" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7547,15 +7577,15 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="B9" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -7563,7 +7593,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7571,7 +7601,7 @@
         <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7579,7 +7609,7 @@
         <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7587,7 +7617,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7595,7 +7625,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7603,7 +7633,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7611,7 +7641,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7619,7 +7649,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7627,7 +7657,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7635,7 +7665,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7643,7 +7673,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7651,15 +7681,15 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B22" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -7673,10 +7703,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AD50"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AD4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7713,7 +7743,7 @@
     <col min="30" max="30" width="9.1640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>1107</v>
       </c>
@@ -7739,7 +7769,7 @@
         <v>56</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>54</v>
@@ -7751,69 +7781,75 @@
         <v>411</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>57</v>
+        <v>1199</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1113</v>
+        <v>1200</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>58</v>
+        <v>1201</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>1112</v>
+        <v>1202</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>59</v>
+        <v>1203</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>1114</v>
+        <v>1204</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>60</v>
+        <v>1205</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>1115</v>
+        <v>1206</v>
       </c>
       <c r="U1" s="38" t="s">
-        <v>61</v>
+        <v>1207</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>1116</v>
+        <v>1208</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>62</v>
+        <v>1209</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>1117</v>
+        <v>1210</v>
       </c>
       <c r="Y1" s="38" t="s">
-        <v>63</v>
+        <v>1211</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>1118</v>
+        <v>1212</v>
       </c>
       <c r="AA1" s="38" t="s">
-        <v>64</v>
+        <v>1213</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>1119</v>
+        <v>1214</v>
       </c>
       <c r="AC1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="AD1" s="43" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1112</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>5</v>
@@ -7844,7 +7880,7 @@
       </c>
       <c r="L2" s="41"/>
       <c r="M2" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M2,Services!$A$1:$B$45,2)),"",VLOOKUP(M2,Services!$A$1:$B$45,2))</f>
@@ -7886,21 +7922,21 @@
         <v/>
       </c>
       <c r="AC2" s="41" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="AD2" s="41" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>5</v>
@@ -7931,7 +7967,7 @@
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="N3" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M3,Services!$A$1:$B$45,2)),"",VLOOKUP(M3,Services!$A$1:$B$45,2))</f>
@@ -7973,21 +8009,21 @@
         <v/>
       </c>
       <c r="AC3" s="41" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="AD3" s="41" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>5</v>
@@ -8018,7 +8054,7 @@
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="N4" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M4,Services!$A$1:$B$45,2)),"",VLOOKUP(M4,Services!$A$1:$B$45,2))</f>
@@ -8060,13 +8096,13 @@
         <v/>
       </c>
       <c r="AC4" s="41" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="AD4" s="41" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
@@ -8131,7 +8167,7 @@
       <c r="AC5" s="41"/>
       <c r="AD5" s="41"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
@@ -8196,7 +8232,7 @@
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
@@ -8261,7 +8297,7 @@
       <c r="AC7" s="41"/>
       <c r="AD7" s="41"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
@@ -8326,7 +8362,7 @@
       <c r="AC8" s="41"/>
       <c r="AD8" s="41"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
@@ -8391,7 +8427,7 @@
       <c r="AC9" s="41"/>
       <c r="AD9" s="41"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -8456,7 +8492,7 @@
       <c r="AC10" s="41"/>
       <c r="AD10" s="41"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
@@ -8521,7 +8557,7 @@
       <c r="AC11" s="41"/>
       <c r="AD11" s="41"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -8586,7 +8622,7 @@
       <c r="AC12" s="41"/>
       <c r="AD12" s="41"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -8651,7 +8687,7 @@
       <c r="AC13" s="41"/>
       <c r="AD13" s="41"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -8716,7 +8752,7 @@
       <c r="AC14" s="41"/>
       <c r="AD14" s="41"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
@@ -8781,7 +8817,7 @@
       <c r="AC15" s="41"/>
       <c r="AD15" s="41"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -11057,7 +11093,7 @@
       <c r="AD50" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6oyb3rRRfKDqti5GQJdNRgETALv5BhypIRzP7ad5VgVRdJpgy9LUEIpAIaOgXLHmnqidCaz2KGK7nd1sygRpVQ==" saltValue="jaug0yiNYL4uUSxB9UIkgQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -11131,7 +11167,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -11172,7 +11208,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11180,47 +11216,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B3" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B4" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="B5" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="B7" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11228,7 +11264,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11236,7 +11272,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11244,7 +11280,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11252,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11260,7 +11296,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11268,7 +11304,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11276,7 +11312,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11284,7 +11320,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11292,7 +11328,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11300,7 +11336,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11308,7 +11344,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11316,7 +11352,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11324,7 +11360,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11332,7 +11368,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11340,7 +11376,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11348,7 +11384,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11356,7 +11392,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11364,7 +11400,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11372,7 +11408,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11380,7 +11416,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11388,7 +11424,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11396,7 +11432,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11404,7 +11440,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11412,7 +11448,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11420,7 +11456,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11428,7 +11464,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11436,7 +11472,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11444,7 +11480,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11452,7 +11488,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11460,7 +11496,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11468,7 +11504,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11476,7 +11512,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11484,7 +11520,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11492,7 +11528,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11500,7 +11536,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11508,7 +11544,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11516,7 +11552,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11524,7 +11560,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -18910,7 +18946,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2109032/RDCC4025/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B456E5D-11AA-F94C-AC21-2DBD3869CCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66DFC5-F2E9-1643-8850-EA85A2089DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="19540" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="19540" activeTab="7" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
     <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
-    <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Region" sheetId="3" state="hidden" r:id="rId7"/>
-    <sheet name="Roles" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="Validations" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="User Type" sheetId="9" r:id="rId4"/>
+    <sheet name="Services" sheetId="7" r:id="rId5"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
+    <sheet name="Region" sheetId="3" r:id="rId7"/>
+    <sheet name="Roles" sheetId="4" r:id="rId8"/>
+    <sheet name="Validations" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1223">
   <si>
     <t>Region</t>
   </si>
@@ -3689,6 +3689,30 @@
   </si>
   <si>
     <t>Service8 ID</t>
+  </si>
+  <si>
+    <t>Hearing Centre Team Leader </t>
+  </si>
+  <si>
+    <t>Hearing Centre Administrator</t>
+  </si>
+  <si>
+    <t>Court Clerk</t>
+  </si>
+  <si>
+    <t>National Business Centre Team leader</t>
+  </si>
+  <si>
+    <t>National Business Centre Listing team</t>
+  </si>
+  <si>
+    <t>National Business Centre Payments team</t>
+  </si>
+  <si>
+    <t>CTSC team leader</t>
+  </si>
+  <si>
+    <t>CTSC Administrator</t>
   </si>
 </sst>
 </file>
@@ -3827,7 +3851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3861,17 +3885,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3947,7 +3960,7 @@
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3966,10 +3979,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3984,7 +3997,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3993,16 +4006,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4017,10 +4030,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -4041,11 +4054,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4058,14 +4071,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -7705,8 +7718,8 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7723,24 +7736,24 @@
     <col min="10" max="10" width="15.5" style="40" customWidth="1"/>
     <col min="11" max="11" width="25.5" style="40" customWidth="1"/>
     <col min="12" max="12" width="19.5" style="40" customWidth="1"/>
-    <col min="13" max="13" width="24" style="40" customWidth="1"/>
-    <col min="14" max="14" width="24" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" style="40" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="40" customWidth="1"/>
-    <col min="22" max="22" width="16" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5" style="40" customWidth="1"/>
-    <col min="24" max="24" width="14.5" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" style="40" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="40" customWidth="1"/>
-    <col min="28" max="28" width="14.5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="40" customWidth="1"/>
-    <col min="30" max="30" width="9.1640625" style="40"/>
+    <col min="13" max="13" width="8.83203125" style="40"/>
+    <col min="16" max="16" width="24" style="40" customWidth="1"/>
+    <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" style="40" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" style="40" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="40" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="40" customWidth="1"/>
+    <col min="25" max="25" width="16" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" style="40" customWidth="1"/>
+    <col min="27" max="27" width="14.5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" style="40" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5" style="40" customWidth="1"/>
+    <col min="31" max="31" width="14.5" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="25.5" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -7780,72 +7793,72 @@
       <c r="L1" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="45" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P1" s="38" t="s">
         <v>1199</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>1200</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>1201</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="S1" s="29" t="s">
         <v>1202</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>1203</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="U1" s="29" t="s">
         <v>1204</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="V1" s="38" t="s">
         <v>1205</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="W1" s="29" t="s">
         <v>1206</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>1207</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>1208</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1209</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>1210</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1211</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>1212</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1213</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>1214</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="43" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>1198</v>
-      </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>1194</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>1192</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -7880,59 +7893,61 @@
       </c>
       <c r="L2" s="41"/>
       <c r="M2" s="41" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="41" t="s">
         <v>1161</v>
       </c>
-      <c r="N2" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M2,Services!$A$1:$B$45,2)),"",VLOOKUP(M2,Services!$A$1:$B$45,2))</f>
+      <c r="Q2" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P2,Services!$A$1:$B$45,2)),"",VLOOKUP(P2,Services!$A$1:$B$45,2))</f>
         <v>BHA3</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O2,Services!$A$1:$B$45,2)),"",VLOOKUP(O2,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q2,Services!$A$1:$B$45,2)),"",VLOOKUP(Q2,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S2,Services!$A$1:$B$45,2)),"",VLOOKUP(S2,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U2,Services!$A$1:$B$45,2)),"",VLOOKUP(U2,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W2,Services!$A$1:$B$45,2)),"",VLOOKUP(W2,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y2,Services!$A$1:$B$45,2)),"",VLOOKUP(Y2,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA2,Services!$A$1:$B$45,2)),"",VLOOKUP(AA2,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC2" s="41" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R2,Services!$A$1:$B$45,2)),"",VLOOKUP(R2,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T2" s="41"/>
+      <c r="U2" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T2,Services!$A$1:$B$45,2)),"",VLOOKUP(T2,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V2" s="41"/>
+      <c r="W2" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V2,Services!$A$1:$B$45,2)),"",VLOOKUP(V2,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X2,Services!$A$1:$B$45,2)),"",VLOOKUP(X2,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z2,Services!$A$1:$B$45,2)),"",VLOOKUP(Z2,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB2,Services!$A$1:$B$45,2)),"",VLOOKUP(AB2,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD2,Services!$A$1:$B$45,2)),"",VLOOKUP(AD2,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF2" s="41" t="s">
         <v>1191</v>
-      </c>
-      <c r="AD2" s="41" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>1196</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1192</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -7967,59 +7982,61 @@
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="41" t="s">
         <v>1161</v>
       </c>
-      <c r="N3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M3,Services!$A$1:$B$45,2)),"",VLOOKUP(M3,Services!$A$1:$B$45,2))</f>
+      <c r="Q3" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P3,Services!$A$1:$B$45,2)),"",VLOOKUP(P3,Services!$A$1:$B$45,2))</f>
         <v>BHA3</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O3,Services!$A$1:$B$45,2)),"",VLOOKUP(O3,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q3,Services!$A$1:$B$45,2)),"",VLOOKUP(Q3,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S3,Services!$A$1:$B$45,2)),"",VLOOKUP(S3,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U3" s="41"/>
-      <c r="V3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U3,Services!$A$1:$B$45,2)),"",VLOOKUP(U3,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W3" s="41"/>
-      <c r="X3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W3,Services!$A$1:$B$45,2)),"",VLOOKUP(W3,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y3,Services!$A$1:$B$45,2)),"",VLOOKUP(Y3,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA3,Services!$A$1:$B$45,2)),"",VLOOKUP(AA3,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC3" s="41" t="s">
+      <c r="R3" s="41"/>
+      <c r="S3" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R3,Services!$A$1:$B$45,2)),"",VLOOKUP(R3,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T3" s="41"/>
+      <c r="U3" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T3,Services!$A$1:$B$45,2)),"",VLOOKUP(T3,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V3,Services!$A$1:$B$45,2)),"",VLOOKUP(V3,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X3,Services!$A$1:$B$45,2)),"",VLOOKUP(X3,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z3,Services!$A$1:$B$45,2)),"",VLOOKUP(Z3,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB3,Services!$A$1:$B$45,2)),"",VLOOKUP(AB3,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD3,Services!$A$1:$B$45,2)),"",VLOOKUP(AD3,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF3" s="41" t="s">
         <v>1191</v>
-      </c>
-      <c r="AD3" s="41" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>1195</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>1192</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -8054,52 +8071,54 @@
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="41" t="s">
         <v>1161</v>
       </c>
-      <c r="N4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M4,Services!$A$1:$B$45,2)),"",VLOOKUP(M4,Services!$A$1:$B$45,2))</f>
+      <c r="Q4" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P4,Services!$A$1:$B$45,2)),"",VLOOKUP(P4,Services!$A$1:$B$45,2))</f>
         <v>BHA3</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O4,Services!$A$1:$B$45,2)),"",VLOOKUP(O4,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q4,Services!$A$1:$B$45,2)),"",VLOOKUP(Q4,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S4,Services!$A$1:$B$45,2)),"",VLOOKUP(S4,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U4,Services!$A$1:$B$45,2)),"",VLOOKUP(U4,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W4,Services!$A$1:$B$45,2)),"",VLOOKUP(W4,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y4,Services!$A$1:$B$45,2)),"",VLOOKUP(Y4,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA4,Services!$A$1:$B$45,2)),"",VLOOKUP(AA4,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC4" s="41" t="s">
+      <c r="R4" s="41"/>
+      <c r="S4" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R4,Services!$A$1:$B$45,2)),"",VLOOKUP(R4,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T4" s="41"/>
+      <c r="U4" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T4,Services!$A$1:$B$45,2)),"",VLOOKUP(T4,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V4" s="41"/>
+      <c r="W4" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V4,Services!$A$1:$B$45,2)),"",VLOOKUP(V4,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X4,Services!$A$1:$B$45,2)),"",VLOOKUP(X4,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z4,Services!$A$1:$B$45,2)),"",VLOOKUP(Z4,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB4,Services!$A$1:$B$45,2)),"",VLOOKUP(AB4,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD4,Services!$A$1:$B$45,2)),"",VLOOKUP(AD4,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF4" s="41" t="s">
         <v>1191</v>
-      </c>
-      <c r="AD4" s="41" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -8125,47 +8144,49 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
-      <c r="N5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M5,Services!$A$1:$B$45,2)),"",VLOOKUP(M5,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O5,Services!$A$1:$B$45,2)),"",VLOOKUP(O5,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q5,Services!$A$1:$B$45,2)),"",VLOOKUP(Q5,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S5" s="41"/>
-      <c r="T5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S5,Services!$A$1:$B$45,2)),"",VLOOKUP(S5,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U5" s="41"/>
-      <c r="V5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U5,Services!$A$1:$B$45,2)),"",VLOOKUP(U5,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W5" s="41"/>
-      <c r="X5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W5,Services!$A$1:$B$45,2)),"",VLOOKUP(W5,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y5,Services!$A$1:$B$45,2)),"",VLOOKUP(Y5,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA5,Services!$A$1:$B$45,2)),"",VLOOKUP(AA5,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC5" s="41"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P5,Services!$A$1:$B$45,2)),"",VLOOKUP(P5,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R5" s="41"/>
+      <c r="S5" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R5,Services!$A$1:$B$45,2)),"",VLOOKUP(R5,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T5" s="41"/>
+      <c r="U5" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T5,Services!$A$1:$B$45,2)),"",VLOOKUP(T5,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V5" s="41"/>
+      <c r="W5" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V5,Services!$A$1:$B$45,2)),"",VLOOKUP(V5,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X5,Services!$A$1:$B$45,2)),"",VLOOKUP(X5,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z5,Services!$A$1:$B$45,2)),"",VLOOKUP(Z5,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB5,Services!$A$1:$B$45,2)),"",VLOOKUP(AB5,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD5" s="41"/>
+      <c r="AE5" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD5,Services!$A$1:$B$45,2)),"",VLOOKUP(AD5,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF5" s="41"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
@@ -8190,47 +8211,49 @@
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
-      <c r="N6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M6,Services!$A$1:$B$45,2)),"",VLOOKUP(M6,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O6,Services!$A$1:$B$45,2)),"",VLOOKUP(O6,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q6,Services!$A$1:$B$45,2)),"",VLOOKUP(Q6,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S6" s="41"/>
-      <c r="T6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S6,Services!$A$1:$B$45,2)),"",VLOOKUP(S6,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U6" s="41"/>
-      <c r="V6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U6,Services!$A$1:$B$45,2)),"",VLOOKUP(U6,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W6" s="41"/>
-      <c r="X6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W6,Services!$A$1:$B$45,2)),"",VLOOKUP(W6,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y6,Services!$A$1:$B$45,2)),"",VLOOKUP(Y6,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA6,Services!$A$1:$B$45,2)),"",VLOOKUP(AA6,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC6" s="41"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P6,Services!$A$1:$B$45,2)),"",VLOOKUP(P6,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R6" s="41"/>
+      <c r="S6" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R6,Services!$A$1:$B$45,2)),"",VLOOKUP(R6,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T6" s="41"/>
+      <c r="U6" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T6,Services!$A$1:$B$45,2)),"",VLOOKUP(T6,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V6" s="41"/>
+      <c r="W6" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V6,Services!$A$1:$B$45,2)),"",VLOOKUP(V6,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X6,Services!$A$1:$B$45,2)),"",VLOOKUP(X6,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z6,Services!$A$1:$B$45,2)),"",VLOOKUP(Z6,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB6,Services!$A$1:$B$45,2)),"",VLOOKUP(AB6,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD6" s="41"/>
+      <c r="AE6" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD6,Services!$A$1:$B$45,2)),"",VLOOKUP(AD6,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF6" s="41"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
@@ -8255,47 +8278,49 @@
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
-      <c r="N7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M7,Services!$A$1:$B$45,2)),"",VLOOKUP(M7,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O7,Services!$A$1:$B$45,2)),"",VLOOKUP(O7,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q7,Services!$A$1:$B$45,2)),"",VLOOKUP(Q7,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S7,Services!$A$1:$B$45,2)),"",VLOOKUP(S7,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U7,Services!$A$1:$B$45,2)),"",VLOOKUP(U7,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W7" s="41"/>
-      <c r="X7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W7,Services!$A$1:$B$45,2)),"",VLOOKUP(W7,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y7,Services!$A$1:$B$45,2)),"",VLOOKUP(Y7,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA7,Services!$A$1:$B$45,2)),"",VLOOKUP(AA7,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC7" s="41"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P7,Services!$A$1:$B$45,2)),"",VLOOKUP(P7,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R7" s="41"/>
+      <c r="S7" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R7,Services!$A$1:$B$45,2)),"",VLOOKUP(R7,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T7" s="41"/>
+      <c r="U7" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T7,Services!$A$1:$B$45,2)),"",VLOOKUP(T7,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V7" s="41"/>
+      <c r="W7" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V7,Services!$A$1:$B$45,2)),"",VLOOKUP(V7,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X7,Services!$A$1:$B$45,2)),"",VLOOKUP(X7,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z7,Services!$A$1:$B$45,2)),"",VLOOKUP(Z7,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB7,Services!$A$1:$B$45,2)),"",VLOOKUP(AB7,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD7" s="41"/>
+      <c r="AE7" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD7,Services!$A$1:$B$45,2)),"",VLOOKUP(AD7,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF7" s="41"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
@@ -8320,47 +8345,49 @@
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
-      <c r="N8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M8,Services!$A$1:$B$45,2)),"",VLOOKUP(M8,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O8,Services!$A$1:$B$45,2)),"",VLOOKUP(O8,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q8,Services!$A$1:$B$45,2)),"",VLOOKUP(Q8,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S8,Services!$A$1:$B$45,2)),"",VLOOKUP(S8,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U8" s="41"/>
-      <c r="V8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U8,Services!$A$1:$B$45,2)),"",VLOOKUP(U8,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W8" s="41"/>
-      <c r="X8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W8,Services!$A$1:$B$45,2)),"",VLOOKUP(W8,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y8,Services!$A$1:$B$45,2)),"",VLOOKUP(Y8,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA8,Services!$A$1:$B$45,2)),"",VLOOKUP(AA8,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC8" s="41"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P8,Services!$A$1:$B$45,2)),"",VLOOKUP(P8,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R8" s="41"/>
+      <c r="S8" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R8,Services!$A$1:$B$45,2)),"",VLOOKUP(R8,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T8" s="41"/>
+      <c r="U8" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T8,Services!$A$1:$B$45,2)),"",VLOOKUP(T8,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V8" s="41"/>
+      <c r="W8" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V8,Services!$A$1:$B$45,2)),"",VLOOKUP(V8,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X8,Services!$A$1:$B$45,2)),"",VLOOKUP(X8,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z8,Services!$A$1:$B$45,2)),"",VLOOKUP(Z8,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB8,Services!$A$1:$B$45,2)),"",VLOOKUP(AB8,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD8" s="41"/>
+      <c r="AE8" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD8,Services!$A$1:$B$45,2)),"",VLOOKUP(AD8,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF8" s="41"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
@@ -8385,47 +8412,49 @@
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
-      <c r="N9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M9,Services!$A$1:$B$45,2)),"",VLOOKUP(M9,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O9,Services!$A$1:$B$45,2)),"",VLOOKUP(O9,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q9,Services!$A$1:$B$45,2)),"",VLOOKUP(Q9,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S9,Services!$A$1:$B$45,2)),"",VLOOKUP(S9,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U9,Services!$A$1:$B$45,2)),"",VLOOKUP(U9,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W9" s="41"/>
-      <c r="X9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W9,Services!$A$1:$B$45,2)),"",VLOOKUP(W9,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y9,Services!$A$1:$B$45,2)),"",VLOOKUP(Y9,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA9,Services!$A$1:$B$45,2)),"",VLOOKUP(AA9,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC9" s="41"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P9,Services!$A$1:$B$45,2)),"",VLOOKUP(P9,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R9" s="41"/>
+      <c r="S9" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R9,Services!$A$1:$B$45,2)),"",VLOOKUP(R9,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T9" s="41"/>
+      <c r="U9" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T9,Services!$A$1:$B$45,2)),"",VLOOKUP(T9,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V9" s="41"/>
+      <c r="W9" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V9,Services!$A$1:$B$45,2)),"",VLOOKUP(V9,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X9,Services!$A$1:$B$45,2)),"",VLOOKUP(X9,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z9,Services!$A$1:$B$45,2)),"",VLOOKUP(Z9,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB9,Services!$A$1:$B$45,2)),"",VLOOKUP(AB9,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD9" s="41"/>
+      <c r="AE9" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD9,Services!$A$1:$B$45,2)),"",VLOOKUP(AD9,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF9" s="41"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
@@ -8450,47 +8479,49 @@
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
-      <c r="N10" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M10,Services!$A$1:$B$45,2)),"",VLOOKUP(M10,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O10,Services!$A$1:$B$45,2)),"",VLOOKUP(O10,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q10,Services!$A$1:$B$45,2)),"",VLOOKUP(Q10,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S10" s="41"/>
-      <c r="T10" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S10,Services!$A$1:$B$45,2)),"",VLOOKUP(S10,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U10,Services!$A$1:$B$45,2)),"",VLOOKUP(U10,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W10" s="41"/>
-      <c r="X10" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W10,Services!$A$1:$B$45,2)),"",VLOOKUP(W10,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y10,Services!$A$1:$B$45,2)),"",VLOOKUP(Y10,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA10,Services!$A$1:$B$45,2)),"",VLOOKUP(AA10,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC10" s="41"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P10,Services!$A$1:$B$45,2)),"",VLOOKUP(P10,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R10" s="41"/>
+      <c r="S10" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R10,Services!$A$1:$B$45,2)),"",VLOOKUP(R10,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T10" s="41"/>
+      <c r="U10" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T10,Services!$A$1:$B$45,2)),"",VLOOKUP(T10,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V10" s="41"/>
+      <c r="W10" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V10,Services!$A$1:$B$45,2)),"",VLOOKUP(V10,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X10,Services!$A$1:$B$45,2)),"",VLOOKUP(X10,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z10,Services!$A$1:$B$45,2)),"",VLOOKUP(Z10,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB10,Services!$A$1:$B$45,2)),"",VLOOKUP(AB10,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD10" s="41"/>
+      <c r="AE10" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD10,Services!$A$1:$B$45,2)),"",VLOOKUP(AD10,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF10" s="41"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
@@ -8515,47 +8546,49 @@
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
-      <c r="N11" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M11,Services!$A$1:$B$45,2)),"",VLOOKUP(M11,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O11,Services!$A$1:$B$45,2)),"",VLOOKUP(O11,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q11,Services!$A$1:$B$45,2)),"",VLOOKUP(Q11,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S11" s="41"/>
-      <c r="T11" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S11,Services!$A$1:$B$45,2)),"",VLOOKUP(S11,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U11" s="41"/>
-      <c r="V11" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U11,Services!$A$1:$B$45,2)),"",VLOOKUP(U11,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W11,Services!$A$1:$B$45,2)),"",VLOOKUP(W11,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y11,Services!$A$1:$B$45,2)),"",VLOOKUP(Y11,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA11,Services!$A$1:$B$45,2)),"",VLOOKUP(AA11,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC11" s="41"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P11,Services!$A$1:$B$45,2)),"",VLOOKUP(P11,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R11" s="41"/>
+      <c r="S11" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R11,Services!$A$1:$B$45,2)),"",VLOOKUP(R11,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T11" s="41"/>
+      <c r="U11" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T11,Services!$A$1:$B$45,2)),"",VLOOKUP(T11,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V11" s="41"/>
+      <c r="W11" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V11,Services!$A$1:$B$45,2)),"",VLOOKUP(V11,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X11,Services!$A$1:$B$45,2)),"",VLOOKUP(X11,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z11,Services!$A$1:$B$45,2)),"",VLOOKUP(Z11,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB11,Services!$A$1:$B$45,2)),"",VLOOKUP(AB11,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD11" s="41"/>
+      <c r="AE11" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD11,Services!$A$1:$B$45,2)),"",VLOOKUP(AD11,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF11" s="41"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
@@ -8580,47 +8613,49 @@
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
-      <c r="N12" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M12,Services!$A$1:$B$45,2)),"",VLOOKUP(M12,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O12,Services!$A$1:$B$45,2)),"",VLOOKUP(O12,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q12,Services!$A$1:$B$45,2)),"",VLOOKUP(Q12,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S12,Services!$A$1:$B$45,2)),"",VLOOKUP(S12,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U12" s="41"/>
-      <c r="V12" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U12,Services!$A$1:$B$45,2)),"",VLOOKUP(U12,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W12" s="41"/>
-      <c r="X12" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W12,Services!$A$1:$B$45,2)),"",VLOOKUP(W12,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y12,Services!$A$1:$B$45,2)),"",VLOOKUP(Y12,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA12,Services!$A$1:$B$45,2)),"",VLOOKUP(AA12,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC12" s="41"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P12,Services!$A$1:$B$45,2)),"",VLOOKUP(P12,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R12" s="41"/>
+      <c r="S12" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R12,Services!$A$1:$B$45,2)),"",VLOOKUP(R12,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T12" s="41"/>
+      <c r="U12" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T12,Services!$A$1:$B$45,2)),"",VLOOKUP(T12,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V12" s="41"/>
+      <c r="W12" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V12,Services!$A$1:$B$45,2)),"",VLOOKUP(V12,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X12,Services!$A$1:$B$45,2)),"",VLOOKUP(X12,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z12,Services!$A$1:$B$45,2)),"",VLOOKUP(Z12,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB12,Services!$A$1:$B$45,2)),"",VLOOKUP(AB12,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD12" s="41"/>
+      <c r="AE12" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD12,Services!$A$1:$B$45,2)),"",VLOOKUP(AD12,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF12" s="41"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
@@ -8645,47 +8680,49 @@
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M13,Services!$A$1:$B$45,2)),"",VLOOKUP(M13,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O13,Services!$A$1:$B$45,2)),"",VLOOKUP(O13,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q13,Services!$A$1:$B$45,2)),"",VLOOKUP(Q13,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S13,Services!$A$1:$B$45,2)),"",VLOOKUP(S13,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U13" s="41"/>
-      <c r="V13" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U13,Services!$A$1:$B$45,2)),"",VLOOKUP(U13,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W13" s="41"/>
-      <c r="X13" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W13,Services!$A$1:$B$45,2)),"",VLOOKUP(W13,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y13,Services!$A$1:$B$45,2)),"",VLOOKUP(Y13,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA13,Services!$A$1:$B$45,2)),"",VLOOKUP(AA13,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC13" s="41"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P13,Services!$A$1:$B$45,2)),"",VLOOKUP(P13,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R13" s="41"/>
+      <c r="S13" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R13,Services!$A$1:$B$45,2)),"",VLOOKUP(R13,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T13" s="41"/>
+      <c r="U13" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T13,Services!$A$1:$B$45,2)),"",VLOOKUP(T13,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V13" s="41"/>
+      <c r="W13" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V13,Services!$A$1:$B$45,2)),"",VLOOKUP(V13,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X13,Services!$A$1:$B$45,2)),"",VLOOKUP(X13,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z13,Services!$A$1:$B$45,2)),"",VLOOKUP(Z13,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB13,Services!$A$1:$B$45,2)),"",VLOOKUP(AB13,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD13" s="41"/>
+      <c r="AE13" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD13,Services!$A$1:$B$45,2)),"",VLOOKUP(AD13,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF13" s="41"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
@@ -8710,47 +8747,49 @@
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
-      <c r="N14" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M14,Services!$A$1:$B$45,2)),"",VLOOKUP(M14,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O14,Services!$A$1:$B$45,2)),"",VLOOKUP(O14,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q14,Services!$A$1:$B$45,2)),"",VLOOKUP(Q14,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S14" s="41"/>
-      <c r="T14" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S14,Services!$A$1:$B$45,2)),"",VLOOKUP(S14,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U14" s="41"/>
-      <c r="V14" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U14,Services!$A$1:$B$45,2)),"",VLOOKUP(U14,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W14" s="41"/>
-      <c r="X14" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W14,Services!$A$1:$B$45,2)),"",VLOOKUP(W14,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y14,Services!$A$1:$B$45,2)),"",VLOOKUP(Y14,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA14,Services!$A$1:$B$45,2)),"",VLOOKUP(AA14,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC14" s="41"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P14,Services!$A$1:$B$45,2)),"",VLOOKUP(P14,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R14" s="41"/>
+      <c r="S14" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R14,Services!$A$1:$B$45,2)),"",VLOOKUP(R14,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T14" s="41"/>
+      <c r="U14" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T14,Services!$A$1:$B$45,2)),"",VLOOKUP(T14,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V14" s="41"/>
+      <c r="W14" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V14,Services!$A$1:$B$45,2)),"",VLOOKUP(V14,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X14,Services!$A$1:$B$45,2)),"",VLOOKUP(X14,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z14,Services!$A$1:$B$45,2)),"",VLOOKUP(Z14,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB14,Services!$A$1:$B$45,2)),"",VLOOKUP(AB14,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD14" s="41"/>
+      <c r="AE14" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD14,Services!$A$1:$B$45,2)),"",VLOOKUP(AD14,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF14" s="41"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
@@ -8775,47 +8814,49 @@
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
-      <c r="N15" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M15,Services!$A$1:$B$45,2)),"",VLOOKUP(M15,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O15,Services!$A$1:$B$45,2)),"",VLOOKUP(O15,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q15,Services!$A$1:$B$45,2)),"",VLOOKUP(Q15,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S15,Services!$A$1:$B$45,2)),"",VLOOKUP(S15,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U15" s="41"/>
-      <c r="V15" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U15,Services!$A$1:$B$45,2)),"",VLOOKUP(U15,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W15" s="41"/>
-      <c r="X15" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W15,Services!$A$1:$B$45,2)),"",VLOOKUP(W15,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y15,Services!$A$1:$B$45,2)),"",VLOOKUP(Y15,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA15,Services!$A$1:$B$45,2)),"",VLOOKUP(AA15,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC15" s="41"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P15,Services!$A$1:$B$45,2)),"",VLOOKUP(P15,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R15" s="41"/>
+      <c r="S15" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R15,Services!$A$1:$B$45,2)),"",VLOOKUP(R15,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T15" s="41"/>
+      <c r="U15" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T15,Services!$A$1:$B$45,2)),"",VLOOKUP(T15,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V15" s="41"/>
+      <c r="W15" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V15,Services!$A$1:$B$45,2)),"",VLOOKUP(V15,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X15,Services!$A$1:$B$45,2)),"",VLOOKUP(X15,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z15,Services!$A$1:$B$45,2)),"",VLOOKUP(Z15,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB15,Services!$A$1:$B$45,2)),"",VLOOKUP(AB15,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD15" s="41"/>
+      <c r="AE15" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD15,Services!$A$1:$B$45,2)),"",VLOOKUP(AD15,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF15" s="41"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
@@ -8840,49 +8881,51 @@
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
-      <c r="N16" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M16,Services!$A$1:$B$45,2)),"",VLOOKUP(M16,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O16,Services!$A$1:$B$45,2)),"",VLOOKUP(O16,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q16,Services!$A$1:$B$45,2)),"",VLOOKUP(Q16,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S16,Services!$A$1:$B$45,2)),"",VLOOKUP(S16,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U16" s="41"/>
-      <c r="V16" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U16,Services!$A$1:$B$45,2)),"",VLOOKUP(U16,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W16" s="41"/>
-      <c r="X16" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W16,Services!$A$1:$B$45,2)),"",VLOOKUP(W16,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y16,Services!$A$1:$B$45,2)),"",VLOOKUP(Y16,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA16,Services!$A$1:$B$45,2)),"",VLOOKUP(AA16,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC16" s="41"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P16,Services!$A$1:$B$45,2)),"",VLOOKUP(P16,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R16" s="41"/>
+      <c r="S16" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R16,Services!$A$1:$B$45,2)),"",VLOOKUP(R16,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T16" s="41"/>
+      <c r="U16" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T16,Services!$A$1:$B$45,2)),"",VLOOKUP(T16,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V16" s="41"/>
+      <c r="W16" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V16,Services!$A$1:$B$45,2)),"",VLOOKUP(V16,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X16,Services!$A$1:$B$45,2)),"",VLOOKUP(X16,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z16,Services!$A$1:$B$45,2)),"",VLOOKUP(Z16,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB16,Services!$A$1:$B$45,2)),"",VLOOKUP(AB16,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD16" s="41"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD16,Services!$A$1:$B$45,2)),"",VLOOKUP(AD16,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF16" s="41"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -8905,49 +8948,51 @@
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
-      <c r="N17" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M17,Services!$A$1:$B$45,2)),"",VLOOKUP(M17,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O17,Services!$A$1:$B$45,2)),"",VLOOKUP(O17,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q17,Services!$A$1:$B$45,2)),"",VLOOKUP(Q17,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S17,Services!$A$1:$B$45,2)),"",VLOOKUP(S17,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U17" s="41"/>
-      <c r="V17" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U17,Services!$A$1:$B$45,2)),"",VLOOKUP(U17,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W17" s="41"/>
-      <c r="X17" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W17,Services!$A$1:$B$45,2)),"",VLOOKUP(W17,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y17,Services!$A$1:$B$45,2)),"",VLOOKUP(Y17,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA17,Services!$A$1:$B$45,2)),"",VLOOKUP(AA17,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC17" s="41"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P17,Services!$A$1:$B$45,2)),"",VLOOKUP(P17,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R17" s="41"/>
+      <c r="S17" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R17,Services!$A$1:$B$45,2)),"",VLOOKUP(R17,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T17" s="41"/>
+      <c r="U17" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T17,Services!$A$1:$B$45,2)),"",VLOOKUP(T17,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V17" s="41"/>
+      <c r="W17" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V17,Services!$A$1:$B$45,2)),"",VLOOKUP(V17,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X17,Services!$A$1:$B$45,2)),"",VLOOKUP(X17,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z17,Services!$A$1:$B$45,2)),"",VLOOKUP(Z17,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB17,Services!$A$1:$B$45,2)),"",VLOOKUP(AB17,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD17" s="41"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD17,Services!$A$1:$B$45,2)),"",VLOOKUP(AD17,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF17" s="41"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -8970,49 +9015,51 @@
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
-      <c r="N18" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M18,Services!$A$1:$B$45,2)),"",VLOOKUP(M18,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O18,Services!$A$1:$B$45,2)),"",VLOOKUP(O18,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q18,Services!$A$1:$B$45,2)),"",VLOOKUP(Q18,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S18" s="41"/>
-      <c r="T18" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S18,Services!$A$1:$B$45,2)),"",VLOOKUP(S18,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U18" s="41"/>
-      <c r="V18" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U18,Services!$A$1:$B$45,2)),"",VLOOKUP(U18,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W18" s="41"/>
-      <c r="X18" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W18,Services!$A$1:$B$45,2)),"",VLOOKUP(W18,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y18,Services!$A$1:$B$45,2)),"",VLOOKUP(Y18,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA18,Services!$A$1:$B$45,2)),"",VLOOKUP(AA18,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC18" s="41"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P18,Services!$A$1:$B$45,2)),"",VLOOKUP(P18,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R18" s="41"/>
+      <c r="S18" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R18,Services!$A$1:$B$45,2)),"",VLOOKUP(R18,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T18" s="41"/>
+      <c r="U18" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T18,Services!$A$1:$B$45,2)),"",VLOOKUP(T18,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V18" s="41"/>
+      <c r="W18" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V18,Services!$A$1:$B$45,2)),"",VLOOKUP(V18,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X18,Services!$A$1:$B$45,2)),"",VLOOKUP(X18,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z18,Services!$A$1:$B$45,2)),"",VLOOKUP(Z18,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB18,Services!$A$1:$B$45,2)),"",VLOOKUP(AB18,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD18" s="41"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD18,Services!$A$1:$B$45,2)),"",VLOOKUP(AD18,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF18" s="41"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -9035,49 +9082,51 @@
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
-      <c r="N19" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M19,Services!$A$1:$B$45,2)),"",VLOOKUP(M19,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O19,Services!$A$1:$B$45,2)),"",VLOOKUP(O19,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q19,Services!$A$1:$B$45,2)),"",VLOOKUP(Q19,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S19,Services!$A$1:$B$45,2)),"",VLOOKUP(S19,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U19" s="41"/>
-      <c r="V19" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U19,Services!$A$1:$B$45,2)),"",VLOOKUP(U19,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W19" s="41"/>
-      <c r="X19" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W19,Services!$A$1:$B$45,2)),"",VLOOKUP(W19,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y19,Services!$A$1:$B$45,2)),"",VLOOKUP(Y19,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA19,Services!$A$1:$B$45,2)),"",VLOOKUP(AA19,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC19" s="41"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P19,Services!$A$1:$B$45,2)),"",VLOOKUP(P19,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R19" s="41"/>
+      <c r="S19" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R19,Services!$A$1:$B$45,2)),"",VLOOKUP(R19,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T19" s="41"/>
+      <c r="U19" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T19,Services!$A$1:$B$45,2)),"",VLOOKUP(T19,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V19" s="41"/>
+      <c r="W19" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V19,Services!$A$1:$B$45,2)),"",VLOOKUP(V19,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X19,Services!$A$1:$B$45,2)),"",VLOOKUP(X19,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z19,Services!$A$1:$B$45,2)),"",VLOOKUP(Z19,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB19,Services!$A$1:$B$45,2)),"",VLOOKUP(AB19,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD19" s="41"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD19,Services!$A$1:$B$45,2)),"",VLOOKUP(AD19,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF19" s="41"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -9100,49 +9149,51 @@
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
-      <c r="N20" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M20,Services!$A$1:$B$45,2)),"",VLOOKUP(M20,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O20" s="41"/>
-      <c r="P20" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O20,Services!$A$1:$B$45,2)),"",VLOOKUP(O20,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q20,Services!$A$1:$B$45,2)),"",VLOOKUP(Q20,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S20" s="41"/>
-      <c r="T20" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S20,Services!$A$1:$B$45,2)),"",VLOOKUP(S20,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U20" s="41"/>
-      <c r="V20" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U20,Services!$A$1:$B$45,2)),"",VLOOKUP(U20,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W20" s="41"/>
-      <c r="X20" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W20,Services!$A$1:$B$45,2)),"",VLOOKUP(W20,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y20,Services!$A$1:$B$45,2)),"",VLOOKUP(Y20,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA20,Services!$A$1:$B$45,2)),"",VLOOKUP(AA20,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC20" s="41"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P20,Services!$A$1:$B$45,2)),"",VLOOKUP(P20,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R20" s="41"/>
+      <c r="S20" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R20,Services!$A$1:$B$45,2)),"",VLOOKUP(R20,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T20" s="41"/>
+      <c r="U20" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T20,Services!$A$1:$B$45,2)),"",VLOOKUP(T20,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V20" s="41"/>
+      <c r="W20" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V20,Services!$A$1:$B$45,2)),"",VLOOKUP(V20,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X20,Services!$A$1:$B$45,2)),"",VLOOKUP(X20,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z20,Services!$A$1:$B$45,2)),"",VLOOKUP(Z20,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB20,Services!$A$1:$B$45,2)),"",VLOOKUP(AB20,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD20" s="41"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD20,Services!$A$1:$B$45,2)),"",VLOOKUP(AD20,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF20" s="41"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -9165,49 +9216,51 @@
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
-      <c r="N21" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M21,Services!$A$1:$B$45,2)),"",VLOOKUP(M21,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O21,Services!$A$1:$B$45,2)),"",VLOOKUP(O21,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q21,Services!$A$1:$B$45,2)),"",VLOOKUP(Q21,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S21" s="41"/>
-      <c r="T21" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S21,Services!$A$1:$B$45,2)),"",VLOOKUP(S21,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U21" s="41"/>
-      <c r="V21" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U21,Services!$A$1:$B$45,2)),"",VLOOKUP(U21,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W21" s="41"/>
-      <c r="X21" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W21,Services!$A$1:$B$45,2)),"",VLOOKUP(W21,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y21,Services!$A$1:$B$45,2)),"",VLOOKUP(Y21,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA21,Services!$A$1:$B$45,2)),"",VLOOKUP(AA21,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC21" s="41"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P21,Services!$A$1:$B$45,2)),"",VLOOKUP(P21,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R21" s="41"/>
+      <c r="S21" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R21,Services!$A$1:$B$45,2)),"",VLOOKUP(R21,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T21" s="41"/>
+      <c r="U21" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T21,Services!$A$1:$B$45,2)),"",VLOOKUP(T21,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V21" s="41"/>
+      <c r="W21" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V21,Services!$A$1:$B$45,2)),"",VLOOKUP(V21,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X21,Services!$A$1:$B$45,2)),"",VLOOKUP(X21,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z21,Services!$A$1:$B$45,2)),"",VLOOKUP(Z21,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB21,Services!$A$1:$B$45,2)),"",VLOOKUP(AB21,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD21" s="41"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD21,Services!$A$1:$B$45,2)),"",VLOOKUP(AD21,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF21" s="41"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -9230,49 +9283,51 @@
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
-      <c r="N22" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M22,Services!$A$1:$B$45,2)),"",VLOOKUP(M22,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O22,Services!$A$1:$B$45,2)),"",VLOOKUP(O22,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q22,Services!$A$1:$B$45,2)),"",VLOOKUP(Q22,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S22" s="41"/>
-      <c r="T22" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S22,Services!$A$1:$B$45,2)),"",VLOOKUP(S22,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U22" s="41"/>
-      <c r="V22" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U22,Services!$A$1:$B$45,2)),"",VLOOKUP(U22,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W22" s="41"/>
-      <c r="X22" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W22,Services!$A$1:$B$45,2)),"",VLOOKUP(W22,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y22,Services!$A$1:$B$45,2)),"",VLOOKUP(Y22,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA22,Services!$A$1:$B$45,2)),"",VLOOKUP(AA22,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC22" s="41"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P22,Services!$A$1:$B$45,2)),"",VLOOKUP(P22,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R22" s="41"/>
+      <c r="S22" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R22,Services!$A$1:$B$45,2)),"",VLOOKUP(R22,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T22" s="41"/>
+      <c r="U22" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T22,Services!$A$1:$B$45,2)),"",VLOOKUP(T22,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V22" s="41"/>
+      <c r="W22" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V22,Services!$A$1:$B$45,2)),"",VLOOKUP(V22,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X22,Services!$A$1:$B$45,2)),"",VLOOKUP(X22,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z22,Services!$A$1:$B$45,2)),"",VLOOKUP(Z22,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB22,Services!$A$1:$B$45,2)),"",VLOOKUP(AB22,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD22" s="41"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD22,Services!$A$1:$B$45,2)),"",VLOOKUP(AD22,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF22" s="41"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -9295,49 +9350,51 @@
       <c r="K23" s="41"/>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
-      <c r="N23" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M23,Services!$A$1:$B$45,2)),"",VLOOKUP(M23,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O23,Services!$A$1:$B$45,2)),"",VLOOKUP(O23,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q23,Services!$A$1:$B$45,2)),"",VLOOKUP(Q23,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S23" s="41"/>
-      <c r="T23" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S23,Services!$A$1:$B$45,2)),"",VLOOKUP(S23,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U23" s="41"/>
-      <c r="V23" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U23,Services!$A$1:$B$45,2)),"",VLOOKUP(U23,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W23" s="41"/>
-      <c r="X23" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W23,Services!$A$1:$B$45,2)),"",VLOOKUP(W23,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y23,Services!$A$1:$B$45,2)),"",VLOOKUP(Y23,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA23,Services!$A$1:$B$45,2)),"",VLOOKUP(AA23,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC23" s="41"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P23,Services!$A$1:$B$45,2)),"",VLOOKUP(P23,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R23" s="41"/>
+      <c r="S23" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R23,Services!$A$1:$B$45,2)),"",VLOOKUP(R23,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T23" s="41"/>
+      <c r="U23" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T23,Services!$A$1:$B$45,2)),"",VLOOKUP(T23,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V23" s="41"/>
+      <c r="W23" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V23,Services!$A$1:$B$45,2)),"",VLOOKUP(V23,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X23,Services!$A$1:$B$45,2)),"",VLOOKUP(X23,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z23,Services!$A$1:$B$45,2)),"",VLOOKUP(Z23,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB23,Services!$A$1:$B$45,2)),"",VLOOKUP(AB23,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD23" s="41"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD23,Services!$A$1:$B$45,2)),"",VLOOKUP(AD23,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF23" s="41"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -9360,49 +9417,51 @@
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
-      <c r="N24" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M24,Services!$A$1:$B$45,2)),"",VLOOKUP(M24,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O24,Services!$A$1:$B$45,2)),"",VLOOKUP(O24,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q24,Services!$A$1:$B$45,2)),"",VLOOKUP(Q24,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S24" s="41"/>
-      <c r="T24" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S24,Services!$A$1:$B$45,2)),"",VLOOKUP(S24,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U24" s="41"/>
-      <c r="V24" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U24,Services!$A$1:$B$45,2)),"",VLOOKUP(U24,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W24" s="41"/>
-      <c r="X24" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W24,Services!$A$1:$B$45,2)),"",VLOOKUP(W24,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y24,Services!$A$1:$B$45,2)),"",VLOOKUP(Y24,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA24,Services!$A$1:$B$45,2)),"",VLOOKUP(AA24,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC24" s="41"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P24,Services!$A$1:$B$45,2)),"",VLOOKUP(P24,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R24" s="41"/>
+      <c r="S24" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R24,Services!$A$1:$B$45,2)),"",VLOOKUP(R24,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T24" s="41"/>
+      <c r="U24" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T24,Services!$A$1:$B$45,2)),"",VLOOKUP(T24,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V24" s="41"/>
+      <c r="W24" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V24,Services!$A$1:$B$45,2)),"",VLOOKUP(V24,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X24,Services!$A$1:$B$45,2)),"",VLOOKUP(X24,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z24,Services!$A$1:$B$45,2)),"",VLOOKUP(Z24,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB24,Services!$A$1:$B$45,2)),"",VLOOKUP(AB24,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD24" s="41"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD24,Services!$A$1:$B$45,2)),"",VLOOKUP(AD24,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF24" s="41"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -9425,49 +9484,51 @@
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
-      <c r="N25" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M25,Services!$A$1:$B$45,2)),"",VLOOKUP(M25,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O25" s="41"/>
-      <c r="P25" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O25,Services!$A$1:$B$45,2)),"",VLOOKUP(O25,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q25,Services!$A$1:$B$45,2)),"",VLOOKUP(Q25,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S25" s="41"/>
-      <c r="T25" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S25,Services!$A$1:$B$45,2)),"",VLOOKUP(S25,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U25" s="41"/>
-      <c r="V25" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U25,Services!$A$1:$B$45,2)),"",VLOOKUP(U25,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W25" s="41"/>
-      <c r="X25" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W25,Services!$A$1:$B$45,2)),"",VLOOKUP(W25,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y25,Services!$A$1:$B$45,2)),"",VLOOKUP(Y25,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA25,Services!$A$1:$B$45,2)),"",VLOOKUP(AA25,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC25" s="41"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P25,Services!$A$1:$B$45,2)),"",VLOOKUP(P25,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R25" s="41"/>
+      <c r="S25" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R25,Services!$A$1:$B$45,2)),"",VLOOKUP(R25,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T25" s="41"/>
+      <c r="U25" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T25,Services!$A$1:$B$45,2)),"",VLOOKUP(T25,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V25" s="41"/>
+      <c r="W25" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V25,Services!$A$1:$B$45,2)),"",VLOOKUP(V25,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X25,Services!$A$1:$B$45,2)),"",VLOOKUP(X25,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z25,Services!$A$1:$B$45,2)),"",VLOOKUP(Z25,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB25,Services!$A$1:$B$45,2)),"",VLOOKUP(AB25,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD25" s="41"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD25,Services!$A$1:$B$45,2)),"",VLOOKUP(AD25,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF25" s="41"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -9490,49 +9551,51 @@
       <c r="K26" s="41"/>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
-      <c r="N26" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M26,Services!$A$1:$B$45,2)),"",VLOOKUP(M26,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O26,Services!$A$1:$B$45,2)),"",VLOOKUP(O26,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q26,Services!$A$1:$B$45,2)),"",VLOOKUP(Q26,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S26" s="41"/>
-      <c r="T26" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S26,Services!$A$1:$B$45,2)),"",VLOOKUP(S26,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U26" s="41"/>
-      <c r="V26" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U26,Services!$A$1:$B$45,2)),"",VLOOKUP(U26,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W26" s="41"/>
-      <c r="X26" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W26,Services!$A$1:$B$45,2)),"",VLOOKUP(W26,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y26,Services!$A$1:$B$45,2)),"",VLOOKUP(Y26,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA26,Services!$A$1:$B$45,2)),"",VLOOKUP(AA26,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC26" s="41"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P26,Services!$A$1:$B$45,2)),"",VLOOKUP(P26,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R26" s="41"/>
+      <c r="S26" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R26,Services!$A$1:$B$45,2)),"",VLOOKUP(R26,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T26" s="41"/>
+      <c r="U26" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T26,Services!$A$1:$B$45,2)),"",VLOOKUP(T26,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V26" s="41"/>
+      <c r="W26" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V26,Services!$A$1:$B$45,2)),"",VLOOKUP(V26,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X26,Services!$A$1:$B$45,2)),"",VLOOKUP(X26,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z26,Services!$A$1:$B$45,2)),"",VLOOKUP(Z26,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB26,Services!$A$1:$B$45,2)),"",VLOOKUP(AB26,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD26" s="41"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD26,Services!$A$1:$B$45,2)),"",VLOOKUP(AD26,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF26" s="41"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -9555,49 +9618,51 @@
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
-      <c r="N27" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M27,Services!$A$1:$B$45,2)),"",VLOOKUP(M27,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O27" s="41"/>
-      <c r="P27" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O27,Services!$A$1:$B$45,2)),"",VLOOKUP(O27,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q27,Services!$A$1:$B$45,2)),"",VLOOKUP(Q27,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S27" s="41"/>
-      <c r="T27" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S27,Services!$A$1:$B$45,2)),"",VLOOKUP(S27,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U27" s="41"/>
-      <c r="V27" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U27,Services!$A$1:$B$45,2)),"",VLOOKUP(U27,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W27" s="41"/>
-      <c r="X27" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W27,Services!$A$1:$B$45,2)),"",VLOOKUP(W27,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y27,Services!$A$1:$B$45,2)),"",VLOOKUP(Y27,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA27,Services!$A$1:$B$45,2)),"",VLOOKUP(AA27,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC27" s="41"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P27,Services!$A$1:$B$45,2)),"",VLOOKUP(P27,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R27" s="41"/>
+      <c r="S27" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R27,Services!$A$1:$B$45,2)),"",VLOOKUP(R27,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T27" s="41"/>
+      <c r="U27" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T27,Services!$A$1:$B$45,2)),"",VLOOKUP(T27,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V27" s="41"/>
+      <c r="W27" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V27,Services!$A$1:$B$45,2)),"",VLOOKUP(V27,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X27,Services!$A$1:$B$45,2)),"",VLOOKUP(X27,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z27,Services!$A$1:$B$45,2)),"",VLOOKUP(Z27,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB27,Services!$A$1:$B$45,2)),"",VLOOKUP(AB27,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD27" s="41"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD27,Services!$A$1:$B$45,2)),"",VLOOKUP(AD27,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF27" s="41"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -9620,49 +9685,51 @@
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
-      <c r="N28" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M28,Services!$A$1:$B$45,2)),"",VLOOKUP(M28,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O28,Services!$A$1:$B$45,2)),"",VLOOKUP(O28,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q28,Services!$A$1:$B$45,2)),"",VLOOKUP(Q28,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S28" s="41"/>
-      <c r="T28" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S28,Services!$A$1:$B$45,2)),"",VLOOKUP(S28,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U28" s="41"/>
-      <c r="V28" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U28,Services!$A$1:$B$45,2)),"",VLOOKUP(U28,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W28" s="41"/>
-      <c r="X28" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W28,Services!$A$1:$B$45,2)),"",VLOOKUP(W28,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y28,Services!$A$1:$B$45,2)),"",VLOOKUP(Y28,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA28,Services!$A$1:$B$45,2)),"",VLOOKUP(AA28,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC28" s="41"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P28,Services!$A$1:$B$45,2)),"",VLOOKUP(P28,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R28" s="41"/>
+      <c r="S28" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R28,Services!$A$1:$B$45,2)),"",VLOOKUP(R28,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T28" s="41"/>
+      <c r="U28" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T28,Services!$A$1:$B$45,2)),"",VLOOKUP(T28,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V28" s="41"/>
+      <c r="W28" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V28,Services!$A$1:$B$45,2)),"",VLOOKUP(V28,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X28,Services!$A$1:$B$45,2)),"",VLOOKUP(X28,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z28,Services!$A$1:$B$45,2)),"",VLOOKUP(Z28,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB28,Services!$A$1:$B$45,2)),"",VLOOKUP(AB28,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD28" s="41"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD28,Services!$A$1:$B$45,2)),"",VLOOKUP(AD28,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF28" s="41"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -9685,49 +9752,51 @@
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
-      <c r="N29" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M29,Services!$A$1:$B$45,2)),"",VLOOKUP(M29,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O29,Services!$A$1:$B$45,2)),"",VLOOKUP(O29,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q29,Services!$A$1:$B$45,2)),"",VLOOKUP(Q29,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S29" s="41"/>
-      <c r="T29" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S29,Services!$A$1:$B$45,2)),"",VLOOKUP(S29,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U29" s="41"/>
-      <c r="V29" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U29,Services!$A$1:$B$45,2)),"",VLOOKUP(U29,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W29" s="41"/>
-      <c r="X29" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W29,Services!$A$1:$B$45,2)),"",VLOOKUP(W29,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y29,Services!$A$1:$B$45,2)),"",VLOOKUP(Y29,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA29,Services!$A$1:$B$45,2)),"",VLOOKUP(AA29,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC29" s="41"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P29,Services!$A$1:$B$45,2)),"",VLOOKUP(P29,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R29" s="41"/>
+      <c r="S29" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R29,Services!$A$1:$B$45,2)),"",VLOOKUP(R29,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T29" s="41"/>
+      <c r="U29" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T29,Services!$A$1:$B$45,2)),"",VLOOKUP(T29,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V29" s="41"/>
+      <c r="W29" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V29,Services!$A$1:$B$45,2)),"",VLOOKUP(V29,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X29,Services!$A$1:$B$45,2)),"",VLOOKUP(X29,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z29,Services!$A$1:$B$45,2)),"",VLOOKUP(Z29,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB29,Services!$A$1:$B$45,2)),"",VLOOKUP(AB29,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD29" s="41"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD29,Services!$A$1:$B$45,2)),"",VLOOKUP(AD29,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF29" s="41"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -9750,49 +9819,51 @@
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
-      <c r="N30" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M30,Services!$A$1:$B$45,2)),"",VLOOKUP(M30,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O30,Services!$A$1:$B$45,2)),"",VLOOKUP(O30,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q30,Services!$A$1:$B$45,2)),"",VLOOKUP(Q30,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S30" s="41"/>
-      <c r="T30" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S30,Services!$A$1:$B$45,2)),"",VLOOKUP(S30,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U30" s="41"/>
-      <c r="V30" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U30,Services!$A$1:$B$45,2)),"",VLOOKUP(U30,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W30" s="41"/>
-      <c r="X30" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W30,Services!$A$1:$B$45,2)),"",VLOOKUP(W30,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y30,Services!$A$1:$B$45,2)),"",VLOOKUP(Y30,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA30,Services!$A$1:$B$45,2)),"",VLOOKUP(AA30,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC30" s="41"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P30,Services!$A$1:$B$45,2)),"",VLOOKUP(P30,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R30" s="41"/>
+      <c r="S30" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R30,Services!$A$1:$B$45,2)),"",VLOOKUP(R30,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T30" s="41"/>
+      <c r="U30" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T30,Services!$A$1:$B$45,2)),"",VLOOKUP(T30,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V30" s="41"/>
+      <c r="W30" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V30,Services!$A$1:$B$45,2)),"",VLOOKUP(V30,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X30,Services!$A$1:$B$45,2)),"",VLOOKUP(X30,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z30,Services!$A$1:$B$45,2)),"",VLOOKUP(Z30,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB30,Services!$A$1:$B$45,2)),"",VLOOKUP(AB30,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD30" s="41"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD30,Services!$A$1:$B$45,2)),"",VLOOKUP(AD30,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF30" s="41"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -9815,49 +9886,51 @@
       <c r="K31" s="41"/>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
-      <c r="N31" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M31,Services!$A$1:$B$45,2)),"",VLOOKUP(M31,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O31" s="41"/>
-      <c r="P31" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O31,Services!$A$1:$B$45,2)),"",VLOOKUP(O31,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q31,Services!$A$1:$B$45,2)),"",VLOOKUP(Q31,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S31" s="41"/>
-      <c r="T31" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S31,Services!$A$1:$B$45,2)),"",VLOOKUP(S31,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U31" s="41"/>
-      <c r="V31" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U31,Services!$A$1:$B$45,2)),"",VLOOKUP(U31,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W31" s="41"/>
-      <c r="X31" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W31,Services!$A$1:$B$45,2)),"",VLOOKUP(W31,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y31,Services!$A$1:$B$45,2)),"",VLOOKUP(Y31,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA31,Services!$A$1:$B$45,2)),"",VLOOKUP(AA31,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC31" s="41"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P31,Services!$A$1:$B$45,2)),"",VLOOKUP(P31,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R31" s="41"/>
+      <c r="S31" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R31,Services!$A$1:$B$45,2)),"",VLOOKUP(R31,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T31" s="41"/>
+      <c r="U31" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T31,Services!$A$1:$B$45,2)),"",VLOOKUP(T31,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V31" s="41"/>
+      <c r="W31" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V31,Services!$A$1:$B$45,2)),"",VLOOKUP(V31,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X31,Services!$A$1:$B$45,2)),"",VLOOKUP(X31,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z31,Services!$A$1:$B$45,2)),"",VLOOKUP(Z31,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB31,Services!$A$1:$B$45,2)),"",VLOOKUP(AB31,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD31" s="41"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD31,Services!$A$1:$B$45,2)),"",VLOOKUP(AD31,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF31" s="41"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -9880,49 +9953,51 @@
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
-      <c r="N32" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M32,Services!$A$1:$B$45,2)),"",VLOOKUP(M32,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O32" s="41"/>
-      <c r="P32" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O32,Services!$A$1:$B$45,2)),"",VLOOKUP(O32,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q32,Services!$A$1:$B$45,2)),"",VLOOKUP(Q32,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S32" s="41"/>
-      <c r="T32" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S32,Services!$A$1:$B$45,2)),"",VLOOKUP(S32,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U32" s="41"/>
-      <c r="V32" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U32,Services!$A$1:$B$45,2)),"",VLOOKUP(U32,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W32" s="41"/>
-      <c r="X32" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W32,Services!$A$1:$B$45,2)),"",VLOOKUP(W32,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y32,Services!$A$1:$B$45,2)),"",VLOOKUP(Y32,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA32,Services!$A$1:$B$45,2)),"",VLOOKUP(AA32,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC32" s="41"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P32,Services!$A$1:$B$45,2)),"",VLOOKUP(P32,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R32" s="41"/>
+      <c r="S32" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R32,Services!$A$1:$B$45,2)),"",VLOOKUP(R32,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T32" s="41"/>
+      <c r="U32" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T32,Services!$A$1:$B$45,2)),"",VLOOKUP(T32,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V32" s="41"/>
+      <c r="W32" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V32,Services!$A$1:$B$45,2)),"",VLOOKUP(V32,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X32,Services!$A$1:$B$45,2)),"",VLOOKUP(X32,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z32,Services!$A$1:$B$45,2)),"",VLOOKUP(Z32,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB32,Services!$A$1:$B$45,2)),"",VLOOKUP(AB32,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD32" s="41"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD32,Services!$A$1:$B$45,2)),"",VLOOKUP(AD32,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF32" s="41"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -9945,49 +10020,51 @@
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
-      <c r="N33" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M33,Services!$A$1:$B$45,2)),"",VLOOKUP(M33,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O33" s="41"/>
-      <c r="P33" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O33,Services!$A$1:$B$45,2)),"",VLOOKUP(O33,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q33,Services!$A$1:$B$45,2)),"",VLOOKUP(Q33,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S33" s="41"/>
-      <c r="T33" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S33,Services!$A$1:$B$45,2)),"",VLOOKUP(S33,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U33" s="41"/>
-      <c r="V33" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U33,Services!$A$1:$B$45,2)),"",VLOOKUP(U33,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W33" s="41"/>
-      <c r="X33" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W33,Services!$A$1:$B$45,2)),"",VLOOKUP(W33,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y33,Services!$A$1:$B$45,2)),"",VLOOKUP(Y33,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA33,Services!$A$1:$B$45,2)),"",VLOOKUP(AA33,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC33" s="41"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P33,Services!$A$1:$B$45,2)),"",VLOOKUP(P33,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R33" s="41"/>
+      <c r="S33" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R33,Services!$A$1:$B$45,2)),"",VLOOKUP(R33,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T33" s="41"/>
+      <c r="U33" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T33,Services!$A$1:$B$45,2)),"",VLOOKUP(T33,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V33" s="41"/>
+      <c r="W33" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V33,Services!$A$1:$B$45,2)),"",VLOOKUP(V33,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X33,Services!$A$1:$B$45,2)),"",VLOOKUP(X33,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z33,Services!$A$1:$B$45,2)),"",VLOOKUP(Z33,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB33,Services!$A$1:$B$45,2)),"",VLOOKUP(AB33,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD33" s="41"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD33,Services!$A$1:$B$45,2)),"",VLOOKUP(AD33,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF33" s="41"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -10010,49 +10087,51 @@
       <c r="K34" s="41"/>
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
-      <c r="N34" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M34,Services!$A$1:$B$45,2)),"",VLOOKUP(M34,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O34" s="41"/>
-      <c r="P34" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O34,Services!$A$1:$B$45,2)),"",VLOOKUP(O34,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q34,Services!$A$1:$B$45,2)),"",VLOOKUP(Q34,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S34" s="41"/>
-      <c r="T34" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S34,Services!$A$1:$B$45,2)),"",VLOOKUP(S34,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U34" s="41"/>
-      <c r="V34" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U34,Services!$A$1:$B$45,2)),"",VLOOKUP(U34,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W34" s="41"/>
-      <c r="X34" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W34,Services!$A$1:$B$45,2)),"",VLOOKUP(W34,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y34,Services!$A$1:$B$45,2)),"",VLOOKUP(Y34,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA34,Services!$A$1:$B$45,2)),"",VLOOKUP(AA34,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC34" s="41"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P34,Services!$A$1:$B$45,2)),"",VLOOKUP(P34,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R34" s="41"/>
+      <c r="S34" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R34,Services!$A$1:$B$45,2)),"",VLOOKUP(R34,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T34" s="41"/>
+      <c r="U34" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T34,Services!$A$1:$B$45,2)),"",VLOOKUP(T34,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V34" s="41"/>
+      <c r="W34" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V34,Services!$A$1:$B$45,2)),"",VLOOKUP(V34,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X34,Services!$A$1:$B$45,2)),"",VLOOKUP(X34,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z34,Services!$A$1:$B$45,2)),"",VLOOKUP(Z34,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB34,Services!$A$1:$B$45,2)),"",VLOOKUP(AB34,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD34" s="41"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD34,Services!$A$1:$B$45,2)),"",VLOOKUP(AD34,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF34" s="41"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -10075,49 +10154,51 @@
       <c r="K35" s="41"/>
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
-      <c r="N35" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M35,Services!$A$1:$B$45,2)),"",VLOOKUP(M35,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O35" s="41"/>
-      <c r="P35" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O35,Services!$A$1:$B$45,2)),"",VLOOKUP(O35,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q35,Services!$A$1:$B$45,2)),"",VLOOKUP(Q35,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S35" s="41"/>
-      <c r="T35" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S35,Services!$A$1:$B$45,2)),"",VLOOKUP(S35,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U35" s="41"/>
-      <c r="V35" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U35,Services!$A$1:$B$45,2)),"",VLOOKUP(U35,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W35" s="41"/>
-      <c r="X35" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W35,Services!$A$1:$B$45,2)),"",VLOOKUP(W35,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y35,Services!$A$1:$B$45,2)),"",VLOOKUP(Y35,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA35,Services!$A$1:$B$45,2)),"",VLOOKUP(AA35,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC35" s="41"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P35,Services!$A$1:$B$45,2)),"",VLOOKUP(P35,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R35" s="41"/>
+      <c r="S35" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R35,Services!$A$1:$B$45,2)),"",VLOOKUP(R35,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T35" s="41"/>
+      <c r="U35" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T35,Services!$A$1:$B$45,2)),"",VLOOKUP(T35,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V35" s="41"/>
+      <c r="W35" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V35,Services!$A$1:$B$45,2)),"",VLOOKUP(V35,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X35,Services!$A$1:$B$45,2)),"",VLOOKUP(X35,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z35,Services!$A$1:$B$45,2)),"",VLOOKUP(Z35,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB35,Services!$A$1:$B$45,2)),"",VLOOKUP(AB35,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD35" s="41"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD35,Services!$A$1:$B$45,2)),"",VLOOKUP(AD35,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF35" s="41"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -10140,49 +10221,51 @@
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
-      <c r="N36" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M36,Services!$A$1:$B$45,2)),"",VLOOKUP(M36,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O36,Services!$A$1:$B$45,2)),"",VLOOKUP(O36,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q36,Services!$A$1:$B$45,2)),"",VLOOKUP(Q36,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S36" s="41"/>
-      <c r="T36" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S36,Services!$A$1:$B$45,2)),"",VLOOKUP(S36,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U36" s="41"/>
-      <c r="V36" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U36,Services!$A$1:$B$45,2)),"",VLOOKUP(U36,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W36" s="41"/>
-      <c r="X36" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W36,Services!$A$1:$B$45,2)),"",VLOOKUP(W36,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y36,Services!$A$1:$B$45,2)),"",VLOOKUP(Y36,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA36,Services!$A$1:$B$45,2)),"",VLOOKUP(AA36,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC36" s="41"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P36,Services!$A$1:$B$45,2)),"",VLOOKUP(P36,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R36" s="41"/>
+      <c r="S36" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R36,Services!$A$1:$B$45,2)),"",VLOOKUP(R36,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T36" s="41"/>
+      <c r="U36" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T36,Services!$A$1:$B$45,2)),"",VLOOKUP(T36,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V36" s="41"/>
+      <c r="W36" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V36,Services!$A$1:$B$45,2)),"",VLOOKUP(V36,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X36,Services!$A$1:$B$45,2)),"",VLOOKUP(X36,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z36,Services!$A$1:$B$45,2)),"",VLOOKUP(Z36,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB36,Services!$A$1:$B$45,2)),"",VLOOKUP(AB36,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD36" s="41"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE36" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD36,Services!$A$1:$B$45,2)),"",VLOOKUP(AD36,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF36" s="41"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -10205,49 +10288,51 @@
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
-      <c r="N37" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M37,Services!$A$1:$B$45,2)),"",VLOOKUP(M37,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O37" s="41"/>
-      <c r="P37" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O37,Services!$A$1:$B$45,2)),"",VLOOKUP(O37,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q37,Services!$A$1:$B$45,2)),"",VLOOKUP(Q37,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S37" s="41"/>
-      <c r="T37" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S37,Services!$A$1:$B$45,2)),"",VLOOKUP(S37,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U37" s="41"/>
-      <c r="V37" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U37,Services!$A$1:$B$45,2)),"",VLOOKUP(U37,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W37" s="41"/>
-      <c r="X37" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W37,Services!$A$1:$B$45,2)),"",VLOOKUP(W37,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y37,Services!$A$1:$B$45,2)),"",VLOOKUP(Y37,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA37,Services!$A$1:$B$45,2)),"",VLOOKUP(AA37,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC37" s="41"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P37,Services!$A$1:$B$45,2)),"",VLOOKUP(P37,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R37" s="41"/>
+      <c r="S37" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R37,Services!$A$1:$B$45,2)),"",VLOOKUP(R37,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T37" s="41"/>
+      <c r="U37" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T37,Services!$A$1:$B$45,2)),"",VLOOKUP(T37,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V37" s="41"/>
+      <c r="W37" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V37,Services!$A$1:$B$45,2)),"",VLOOKUP(V37,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X37,Services!$A$1:$B$45,2)),"",VLOOKUP(X37,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z37,Services!$A$1:$B$45,2)),"",VLOOKUP(Z37,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB37,Services!$A$1:$B$45,2)),"",VLOOKUP(AB37,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD37" s="41"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE37" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD37,Services!$A$1:$B$45,2)),"",VLOOKUP(AD37,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF37" s="41"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -10270,49 +10355,51 @@
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
-      <c r="N38" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M38,Services!$A$1:$B$45,2)),"",VLOOKUP(M38,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O38" s="41"/>
-      <c r="P38" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O38,Services!$A$1:$B$45,2)),"",VLOOKUP(O38,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q38,Services!$A$1:$B$45,2)),"",VLOOKUP(Q38,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S38" s="41"/>
-      <c r="T38" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S38,Services!$A$1:$B$45,2)),"",VLOOKUP(S38,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U38" s="41"/>
-      <c r="V38" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U38,Services!$A$1:$B$45,2)),"",VLOOKUP(U38,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W38" s="41"/>
-      <c r="X38" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W38,Services!$A$1:$B$45,2)),"",VLOOKUP(W38,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y38,Services!$A$1:$B$45,2)),"",VLOOKUP(Y38,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA38,Services!$A$1:$B$45,2)),"",VLOOKUP(AA38,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC38" s="41"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P38,Services!$A$1:$B$45,2)),"",VLOOKUP(P38,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R38" s="41"/>
+      <c r="S38" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R38,Services!$A$1:$B$45,2)),"",VLOOKUP(R38,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T38" s="41"/>
+      <c r="U38" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T38,Services!$A$1:$B$45,2)),"",VLOOKUP(T38,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V38" s="41"/>
+      <c r="W38" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V38,Services!$A$1:$B$45,2)),"",VLOOKUP(V38,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X38,Services!$A$1:$B$45,2)),"",VLOOKUP(X38,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z38,Services!$A$1:$B$45,2)),"",VLOOKUP(Z38,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB38,Services!$A$1:$B$45,2)),"",VLOOKUP(AB38,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD38" s="41"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD38,Services!$A$1:$B$45,2)),"",VLOOKUP(AD38,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF38" s="41"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -10335,49 +10422,51 @@
       <c r="K39" s="41"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
-      <c r="N39" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M39,Services!$A$1:$B$45,2)),"",VLOOKUP(M39,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O39" s="41"/>
-      <c r="P39" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O39,Services!$A$1:$B$45,2)),"",VLOOKUP(O39,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q39,Services!$A$1:$B$45,2)),"",VLOOKUP(Q39,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S39" s="41"/>
-      <c r="T39" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S39,Services!$A$1:$B$45,2)),"",VLOOKUP(S39,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U39" s="41"/>
-      <c r="V39" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U39,Services!$A$1:$B$45,2)),"",VLOOKUP(U39,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W39" s="41"/>
-      <c r="X39" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W39,Services!$A$1:$B$45,2)),"",VLOOKUP(W39,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y39,Services!$A$1:$B$45,2)),"",VLOOKUP(Y39,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA39,Services!$A$1:$B$45,2)),"",VLOOKUP(AA39,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC39" s="41"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P39,Services!$A$1:$B$45,2)),"",VLOOKUP(P39,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R39" s="41"/>
+      <c r="S39" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R39,Services!$A$1:$B$45,2)),"",VLOOKUP(R39,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T39" s="41"/>
+      <c r="U39" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T39,Services!$A$1:$B$45,2)),"",VLOOKUP(T39,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V39" s="41"/>
+      <c r="W39" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V39,Services!$A$1:$B$45,2)),"",VLOOKUP(V39,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X39,Services!$A$1:$B$45,2)),"",VLOOKUP(X39,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z39,Services!$A$1:$B$45,2)),"",VLOOKUP(Z39,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB39,Services!$A$1:$B$45,2)),"",VLOOKUP(AB39,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD39" s="41"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD39,Services!$A$1:$B$45,2)),"",VLOOKUP(AD39,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF39" s="41"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -10400,49 +10489,51 @@
       <c r="K40" s="41"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
-      <c r="N40" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M40,Services!$A$1:$B$45,2)),"",VLOOKUP(M40,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O40" s="41"/>
-      <c r="P40" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O40,Services!$A$1:$B$45,2)),"",VLOOKUP(O40,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q40,Services!$A$1:$B$45,2)),"",VLOOKUP(Q40,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S40" s="41"/>
-      <c r="T40" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S40,Services!$A$1:$B$45,2)),"",VLOOKUP(S40,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U40" s="41"/>
-      <c r="V40" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U40,Services!$A$1:$B$45,2)),"",VLOOKUP(U40,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W40" s="41"/>
-      <c r="X40" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W40,Services!$A$1:$B$45,2)),"",VLOOKUP(W40,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y40,Services!$A$1:$B$45,2)),"",VLOOKUP(Y40,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA40,Services!$A$1:$B$45,2)),"",VLOOKUP(AA40,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC40" s="41"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P40,Services!$A$1:$B$45,2)),"",VLOOKUP(P40,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R40" s="41"/>
+      <c r="S40" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R40,Services!$A$1:$B$45,2)),"",VLOOKUP(R40,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T40" s="41"/>
+      <c r="U40" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T40,Services!$A$1:$B$45,2)),"",VLOOKUP(T40,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V40" s="41"/>
+      <c r="W40" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V40,Services!$A$1:$B$45,2)),"",VLOOKUP(V40,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X40,Services!$A$1:$B$45,2)),"",VLOOKUP(X40,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z40,Services!$A$1:$B$45,2)),"",VLOOKUP(Z40,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB40,Services!$A$1:$B$45,2)),"",VLOOKUP(AB40,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD40" s="41"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD40,Services!$A$1:$B$45,2)),"",VLOOKUP(AD40,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF40" s="41"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -10465,49 +10556,51 @@
       <c r="K41" s="41"/>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
-      <c r="N41" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M41,Services!$A$1:$B$45,2)),"",VLOOKUP(M41,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O41" s="41"/>
-      <c r="P41" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O41,Services!$A$1:$B$45,2)),"",VLOOKUP(O41,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q41,Services!$A$1:$B$45,2)),"",VLOOKUP(Q41,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S41" s="41"/>
-      <c r="T41" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S41,Services!$A$1:$B$45,2)),"",VLOOKUP(S41,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U41" s="41"/>
-      <c r="V41" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U41,Services!$A$1:$B$45,2)),"",VLOOKUP(U41,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W41" s="41"/>
-      <c r="X41" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W41,Services!$A$1:$B$45,2)),"",VLOOKUP(W41,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y41,Services!$A$1:$B$45,2)),"",VLOOKUP(Y41,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA41,Services!$A$1:$B$45,2)),"",VLOOKUP(AA41,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC41" s="41"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P41,Services!$A$1:$B$45,2)),"",VLOOKUP(P41,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R41" s="41"/>
+      <c r="S41" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R41,Services!$A$1:$B$45,2)),"",VLOOKUP(R41,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T41" s="41"/>
+      <c r="U41" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T41,Services!$A$1:$B$45,2)),"",VLOOKUP(T41,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V41" s="41"/>
+      <c r="W41" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V41,Services!$A$1:$B$45,2)),"",VLOOKUP(V41,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X41,Services!$A$1:$B$45,2)),"",VLOOKUP(X41,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z41,Services!$A$1:$B$45,2)),"",VLOOKUP(Z41,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB41,Services!$A$1:$B$45,2)),"",VLOOKUP(AB41,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD41" s="41"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD41,Services!$A$1:$B$45,2)),"",VLOOKUP(AD41,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF41" s="41"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -10530,49 +10623,51 @@
       <c r="K42" s="41"/>
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
-      <c r="N42" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M42,Services!$A$1:$B$45,2)),"",VLOOKUP(M42,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O42" s="41"/>
-      <c r="P42" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O42,Services!$A$1:$B$45,2)),"",VLOOKUP(O42,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q42,Services!$A$1:$B$45,2)),"",VLOOKUP(Q42,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S42" s="41"/>
-      <c r="T42" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S42,Services!$A$1:$B$45,2)),"",VLOOKUP(S42,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U42" s="41"/>
-      <c r="V42" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U42,Services!$A$1:$B$45,2)),"",VLOOKUP(U42,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W42" s="41"/>
-      <c r="X42" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W42,Services!$A$1:$B$45,2)),"",VLOOKUP(W42,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y42,Services!$A$1:$B$45,2)),"",VLOOKUP(Y42,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA42,Services!$A$1:$B$45,2)),"",VLOOKUP(AA42,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC42" s="41"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P42,Services!$A$1:$B$45,2)),"",VLOOKUP(P42,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R42" s="41"/>
+      <c r="S42" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R42,Services!$A$1:$B$45,2)),"",VLOOKUP(R42,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T42" s="41"/>
+      <c r="U42" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T42,Services!$A$1:$B$45,2)),"",VLOOKUP(T42,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V42" s="41"/>
+      <c r="W42" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V42,Services!$A$1:$B$45,2)),"",VLOOKUP(V42,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X42,Services!$A$1:$B$45,2)),"",VLOOKUP(X42,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z42,Services!$A$1:$B$45,2)),"",VLOOKUP(Z42,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB42,Services!$A$1:$B$45,2)),"",VLOOKUP(AB42,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD42" s="41"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD42,Services!$A$1:$B$45,2)),"",VLOOKUP(AD42,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF42" s="41"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -10595,49 +10690,51 @@
       <c r="K43" s="41"/>
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
-      <c r="N43" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M43,Services!$A$1:$B$45,2)),"",VLOOKUP(M43,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O43" s="41"/>
-      <c r="P43" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O43,Services!$A$1:$B$45,2)),"",VLOOKUP(O43,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q43,Services!$A$1:$B$45,2)),"",VLOOKUP(Q43,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S43" s="41"/>
-      <c r="T43" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S43,Services!$A$1:$B$45,2)),"",VLOOKUP(S43,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U43" s="41"/>
-      <c r="V43" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U43,Services!$A$1:$B$45,2)),"",VLOOKUP(U43,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W43" s="41"/>
-      <c r="X43" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W43,Services!$A$1:$B$45,2)),"",VLOOKUP(W43,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y43,Services!$A$1:$B$45,2)),"",VLOOKUP(Y43,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA43,Services!$A$1:$B$45,2)),"",VLOOKUP(AA43,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC43" s="41"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P43,Services!$A$1:$B$45,2)),"",VLOOKUP(P43,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R43" s="41"/>
+      <c r="S43" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R43,Services!$A$1:$B$45,2)),"",VLOOKUP(R43,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T43" s="41"/>
+      <c r="U43" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T43,Services!$A$1:$B$45,2)),"",VLOOKUP(T43,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V43" s="41"/>
+      <c r="W43" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V43,Services!$A$1:$B$45,2)),"",VLOOKUP(V43,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X43,Services!$A$1:$B$45,2)),"",VLOOKUP(X43,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z43,Services!$A$1:$B$45,2)),"",VLOOKUP(Z43,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB43,Services!$A$1:$B$45,2)),"",VLOOKUP(AB43,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD43" s="41"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD43,Services!$A$1:$B$45,2)),"",VLOOKUP(AD43,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF43" s="41"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -10660,49 +10757,51 @@
       <c r="K44" s="41"/>
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
-      <c r="N44" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M44,Services!$A$1:$B$45,2)),"",VLOOKUP(M44,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O44" s="41"/>
-      <c r="P44" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O44,Services!$A$1:$B$45,2)),"",VLOOKUP(O44,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q44,Services!$A$1:$B$45,2)),"",VLOOKUP(Q44,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S44" s="41"/>
-      <c r="T44" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S44,Services!$A$1:$B$45,2)),"",VLOOKUP(S44,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U44" s="41"/>
-      <c r="V44" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U44,Services!$A$1:$B$45,2)),"",VLOOKUP(U44,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W44" s="41"/>
-      <c r="X44" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W44,Services!$A$1:$B$45,2)),"",VLOOKUP(W44,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y44" s="41"/>
-      <c r="Z44" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y44,Services!$A$1:$B$45,2)),"",VLOOKUP(Y44,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA44,Services!$A$1:$B$45,2)),"",VLOOKUP(AA44,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC44" s="41"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P44,Services!$A$1:$B$45,2)),"",VLOOKUP(P44,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R44" s="41"/>
+      <c r="S44" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R44,Services!$A$1:$B$45,2)),"",VLOOKUP(R44,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T44" s="41"/>
+      <c r="U44" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T44,Services!$A$1:$B$45,2)),"",VLOOKUP(T44,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V44" s="41"/>
+      <c r="W44" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V44,Services!$A$1:$B$45,2)),"",VLOOKUP(V44,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X44,Services!$A$1:$B$45,2)),"",VLOOKUP(X44,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z44,Services!$A$1:$B$45,2)),"",VLOOKUP(Z44,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB44" s="41"/>
+      <c r="AC44" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB44,Services!$A$1:$B$45,2)),"",VLOOKUP(AB44,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD44" s="41"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD44,Services!$A$1:$B$45,2)),"",VLOOKUP(AD44,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF44" s="41"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -10725,49 +10824,51 @@
       <c r="K45" s="41"/>
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
-      <c r="N45" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M45,Services!$A$1:$B$45,2)),"",VLOOKUP(M45,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O45" s="41"/>
-      <c r="P45" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O45,Services!$A$1:$B$45,2)),"",VLOOKUP(O45,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q45,Services!$A$1:$B$45,2)),"",VLOOKUP(Q45,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S45" s="41"/>
-      <c r="T45" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S45,Services!$A$1:$B$45,2)),"",VLOOKUP(S45,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U45" s="41"/>
-      <c r="V45" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U45,Services!$A$1:$B$45,2)),"",VLOOKUP(U45,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W45" s="41"/>
-      <c r="X45" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W45,Services!$A$1:$B$45,2)),"",VLOOKUP(W45,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y45,Services!$A$1:$B$45,2)),"",VLOOKUP(Y45,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA45,Services!$A$1:$B$45,2)),"",VLOOKUP(AA45,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC45" s="41"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P45,Services!$A$1:$B$45,2)),"",VLOOKUP(P45,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R45" s="41"/>
+      <c r="S45" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R45,Services!$A$1:$B$45,2)),"",VLOOKUP(R45,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T45" s="41"/>
+      <c r="U45" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T45,Services!$A$1:$B$45,2)),"",VLOOKUP(T45,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V45" s="41"/>
+      <c r="W45" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V45,Services!$A$1:$B$45,2)),"",VLOOKUP(V45,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X45,Services!$A$1:$B$45,2)),"",VLOOKUP(X45,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z45,Services!$A$1:$B$45,2)),"",VLOOKUP(Z45,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB45,Services!$A$1:$B$45,2)),"",VLOOKUP(AB45,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD45" s="41"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD45,Services!$A$1:$B$45,2)),"",VLOOKUP(AD45,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF45" s="41"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="42"/>
@@ -10790,49 +10891,51 @@
       <c r="K46" s="41"/>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
-      <c r="N46" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M46,Services!$A$1:$B$45,2)),"",VLOOKUP(M46,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O46" s="41"/>
-      <c r="P46" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O46,Services!$A$1:$B$45,2)),"",VLOOKUP(O46,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q46,Services!$A$1:$B$45,2)),"",VLOOKUP(Q46,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S46" s="41"/>
-      <c r="T46" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S46,Services!$A$1:$B$45,2)),"",VLOOKUP(S46,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U46" s="41"/>
-      <c r="V46" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U46,Services!$A$1:$B$45,2)),"",VLOOKUP(U46,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W46" s="41"/>
-      <c r="X46" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W46,Services!$A$1:$B$45,2)),"",VLOOKUP(W46,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y46,Services!$A$1:$B$45,2)),"",VLOOKUP(Y46,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA46,Services!$A$1:$B$45,2)),"",VLOOKUP(AA46,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC46" s="41"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P46,Services!$A$1:$B$45,2)),"",VLOOKUP(P46,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R46" s="41"/>
+      <c r="S46" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R46,Services!$A$1:$B$45,2)),"",VLOOKUP(R46,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T46" s="41"/>
+      <c r="U46" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T46,Services!$A$1:$B$45,2)),"",VLOOKUP(T46,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V46" s="41"/>
+      <c r="W46" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V46,Services!$A$1:$B$45,2)),"",VLOOKUP(V46,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X46,Services!$A$1:$B$45,2)),"",VLOOKUP(X46,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z46,Services!$A$1:$B$45,2)),"",VLOOKUP(Z46,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB46,Services!$A$1:$B$45,2)),"",VLOOKUP(AB46,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD46" s="41"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD46,Services!$A$1:$B$45,2)),"",VLOOKUP(AD46,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF46" s="41"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -10855,49 +10958,51 @@
       <c r="K47" s="41"/>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
-      <c r="N47" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M47,Services!$A$1:$B$45,2)),"",VLOOKUP(M47,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O47" s="41"/>
-      <c r="P47" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O47,Services!$A$1:$B$45,2)),"",VLOOKUP(O47,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q47,Services!$A$1:$B$45,2)),"",VLOOKUP(Q47,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S47" s="41"/>
-      <c r="T47" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S47,Services!$A$1:$B$45,2)),"",VLOOKUP(S47,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U47" s="41"/>
-      <c r="V47" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U47,Services!$A$1:$B$45,2)),"",VLOOKUP(U47,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W47" s="41"/>
-      <c r="X47" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W47,Services!$A$1:$B$45,2)),"",VLOOKUP(W47,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y47,Services!$A$1:$B$45,2)),"",VLOOKUP(Y47,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA47,Services!$A$1:$B$45,2)),"",VLOOKUP(AA47,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC47" s="41"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P47,Services!$A$1:$B$45,2)),"",VLOOKUP(P47,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R47" s="41"/>
+      <c r="S47" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R47,Services!$A$1:$B$45,2)),"",VLOOKUP(R47,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T47" s="41"/>
+      <c r="U47" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T47,Services!$A$1:$B$45,2)),"",VLOOKUP(T47,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V47" s="41"/>
+      <c r="W47" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V47,Services!$A$1:$B$45,2)),"",VLOOKUP(V47,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X47,Services!$A$1:$B$45,2)),"",VLOOKUP(X47,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z47,Services!$A$1:$B$45,2)),"",VLOOKUP(Z47,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB47,Services!$A$1:$B$45,2)),"",VLOOKUP(AB47,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD47" s="41"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD47,Services!$A$1:$B$45,2)),"",VLOOKUP(AD47,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF47" s="41"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -10920,49 +11025,51 @@
       <c r="K48" s="41"/>
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
-      <c r="N48" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M48,Services!$A$1:$B$45,2)),"",VLOOKUP(M48,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O48" s="41"/>
-      <c r="P48" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O48,Services!$A$1:$B$45,2)),"",VLOOKUP(O48,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q48,Services!$A$1:$B$45,2)),"",VLOOKUP(Q48,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S48" s="41"/>
-      <c r="T48" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S48,Services!$A$1:$B$45,2)),"",VLOOKUP(S48,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U48" s="41"/>
-      <c r="V48" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U48,Services!$A$1:$B$45,2)),"",VLOOKUP(U48,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W48" s="41"/>
-      <c r="X48" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W48,Services!$A$1:$B$45,2)),"",VLOOKUP(W48,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y48,Services!$A$1:$B$45,2)),"",VLOOKUP(Y48,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA48,Services!$A$1:$B$45,2)),"",VLOOKUP(AA48,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC48" s="41"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P48,Services!$A$1:$B$45,2)),"",VLOOKUP(P48,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R48" s="41"/>
+      <c r="S48" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R48,Services!$A$1:$B$45,2)),"",VLOOKUP(R48,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T48" s="41"/>
+      <c r="U48" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T48,Services!$A$1:$B$45,2)),"",VLOOKUP(T48,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V48" s="41"/>
+      <c r="W48" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V48,Services!$A$1:$B$45,2)),"",VLOOKUP(V48,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X48,Services!$A$1:$B$45,2)),"",VLOOKUP(X48,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z48,Services!$A$1:$B$45,2)),"",VLOOKUP(Z48,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB48,Services!$A$1:$B$45,2)),"",VLOOKUP(AB48,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD48" s="41"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD48,Services!$A$1:$B$45,2)),"",VLOOKUP(AD48,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF48" s="41"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="42"/>
@@ -10985,49 +11092,51 @@
       <c r="K49" s="41"/>
       <c r="L49" s="41"/>
       <c r="M49" s="41"/>
-      <c r="N49" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M49,Services!$A$1:$B$45,2)),"",VLOOKUP(M49,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O49" s="41"/>
-      <c r="P49" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O49,Services!$A$1:$B$45,2)),"",VLOOKUP(O49,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q49,Services!$A$1:$B$45,2)),"",VLOOKUP(Q49,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S49" s="41"/>
-      <c r="T49" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S49,Services!$A$1:$B$45,2)),"",VLOOKUP(S49,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U49" s="41"/>
-      <c r="V49" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U49,Services!$A$1:$B$45,2)),"",VLOOKUP(U49,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W49" s="41"/>
-      <c r="X49" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W49,Services!$A$1:$B$45,2)),"",VLOOKUP(W49,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y49,Services!$A$1:$B$45,2)),"",VLOOKUP(Y49,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA49,Services!$A$1:$B$45,2)),"",VLOOKUP(AA49,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC49" s="41"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P49,Services!$A$1:$B$45,2)),"",VLOOKUP(P49,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R49" s="41"/>
+      <c r="S49" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R49,Services!$A$1:$B$45,2)),"",VLOOKUP(R49,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T49" s="41"/>
+      <c r="U49" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T49,Services!$A$1:$B$45,2)),"",VLOOKUP(T49,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V49" s="41"/>
+      <c r="W49" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V49,Services!$A$1:$B$45,2)),"",VLOOKUP(V49,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X49,Services!$A$1:$B$45,2)),"",VLOOKUP(X49,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z49,Services!$A$1:$B$45,2)),"",VLOOKUP(Z49,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB49,Services!$A$1:$B$45,2)),"",VLOOKUP(AB49,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD49" s="41"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD49,Services!$A$1:$B$45,2)),"",VLOOKUP(AD49,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF49" s="41"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
@@ -11050,47 +11159,49 @@
       <c r="K50" s="41"/>
       <c r="L50" s="41"/>
       <c r="M50" s="41"/>
-      <c r="N50" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(M50,Services!$A$1:$B$45,2)),"",VLOOKUP(M50,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="O50" s="41"/>
-      <c r="P50" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(O50,Services!$A$1:$B$45,2)),"",VLOOKUP(O50,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Q50,Services!$A$1:$B$45,2)),"",VLOOKUP(Q50,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="S50" s="41"/>
-      <c r="T50" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(S50,Services!$A$1:$B$45,2)),"",VLOOKUP(S50,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="U50" s="41"/>
-      <c r="V50" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(U50,Services!$A$1:$B$45,2)),"",VLOOKUP(U50,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="W50" s="41"/>
-      <c r="X50" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(W50,Services!$A$1:$B$45,2)),"",VLOOKUP(W50,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(Y50,Services!$A$1:$B$45,2)),"",VLOOKUP(Y50,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AA50" s="41"/>
-      <c r="AB50" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(AA50,Services!$A$1:$B$45,2)),"",VLOOKUP(AA50,Services!$A$1:$B$45,2))</f>
-        <v/>
-      </c>
-      <c r="AC50" s="41"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(P50,Services!$A$1:$B$45,2)),"",VLOOKUP(P50,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="R50" s="41"/>
+      <c r="S50" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(R50,Services!$A$1:$B$45,2)),"",VLOOKUP(R50,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="T50" s="41"/>
+      <c r="U50" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(T50,Services!$A$1:$B$45,2)),"",VLOOKUP(T50,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="V50" s="41"/>
+      <c r="W50" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(V50,Services!$A$1:$B$45,2)),"",VLOOKUP(V50,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(X50,Services!$A$1:$B$45,2)),"",VLOOKUP(X50,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(Z50,Services!$A$1:$B$45,2)),"",VLOOKUP(Z50,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AB50" s="41"/>
+      <c r="AC50" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AB50,Services!$A$1:$B$45,2)),"",VLOOKUP(AB50,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
       <c r="AD50" s="41"/>
+      <c r="AE50" s="1" t="str">
+        <f>IF(ISNA(VLOOKUP(AD50,Services!$A$1:$B$45,2)),"",VLOOKUP(AD50,Services!$A$1:$B$45,2))</f>
+        <v/>
+      </c>
+      <c r="AF50" s="41"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -11109,7 +11220,7 @@
           <x14:formula1>
             <xm:f>Services!$A$1:$A$43</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q50 S2:S50 U2:U50 W2:W50 Y2:Y50 AA2:AA50 M2:M50 O2:O50</xm:sqref>
+          <xm:sqref>T2:T50 V2:V50 X2:X50 Z2:Z50 AB2:AB50 AD2:AD50 P2:P50 R2:R50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69AD3E96-9986-4437-A6D2-54EE41465A4B}">
           <x14:formula1>
@@ -11127,13 +11238,13 @@
           <x14:formula1>
             <xm:f>Roles!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:L50</xm:sqref>
+          <xm:sqref>K2:O50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B1666EF-45EA-466E-BF9B-CD6C235D8633}">
           <x14:formula1>
             <xm:f>Validations!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>AD2:AD50</xm:sqref>
+          <xm:sqref>M2:M50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11182,7 +11293,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IrVQ7Ukz2v/R7gQxangUL5wAqS1715tiGhzT8zLeCz8UJwUIBrCLI/UycSYlC8mt/P4bgWL9vpSls59MeyEaVg==" saltValue="9syDTPxVg8TLEzOvGTicbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11564,7 +11674,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aMZLA0VNhh5Onc5JvFgRcO+m2AuGfgKZ7BoJklGYjHaipO31AQ3xGW7Ut3i3WYaf9wFLoxFNYPTBp+0/KJwncA==" saltValue="2GsNMsCJLWlXXOIX1gAyDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18796,7 +18905,6 @@
     <row r="741" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="742" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m8UckgdD1dcYD9lqf4mZ6sweQUAjls9wUBQbAbH6Fx4sDdSYOTY5ss+Y9DW0iJlEs+St9Rf87Aa3SmKNJ6YBnQ==" saltValue="jfT1mkCRVBT5GRvlbF+nFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A287" r:id="rId1" display="https://courttribunalfinder.service.gov.uk/courts/sunderland-county-family-magistrates-and-tribunal-hearings" xr:uid="{E75D3469-3062-4D00-9760-56E3C0055DF4}"/>
   </hyperlinks>
@@ -18890,7 +18998,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9Dzbl1Vp2as7XYFJXUh3e5BVC8sA06Mwnij3IjqsMXS9OIFgu8FBluC3Lbx7+HH6n1k9gv2FDDtFo6g8N0a+SA==" saltValue="2ONKPZCzYuddgylpf3RncA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18900,10 +19007,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18928,8 +19035,71 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K9Ci/eHmkmskFS0u1ZcnQkRZSqVBH/Kvod5Cg143QmMMqKBzxu71t7mKY0rKC7jAIRToE1wAYtCUnAacyc3hTg==" saltValue="vAGcL88qkz3LKuOeKothwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18955,7 +19125,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D22dSHc3htXuo0x/4I3E9zXiFJcvy3Um+2pZMVdKjhStG73OU02OP04I/9LO7uth2Ls3E1T7wBkvo4tC4iIMtQ==" saltValue="zUVhzd2HkNeGZm+LUf4U+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2109032/RDCC4025/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A0A7AB-207F-8E40-B3B3-E488EDCE9EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F37D6B-5736-6D4F-9033-5904F1017381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="19540" activeTab="7" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
@@ -3724,10 +3724,10 @@
     <t>Regional Centre Administrator</t>
   </si>
   <si>
-    <t>DWP Administrator</t>
-  </si>
-  <si>
-    <t>HMRC Administrator</t>
+    <t>DWP Caseworker</t>
+  </si>
+  <si>
+    <t>HMRC Caseworker</t>
   </si>
 </sst>
 </file>
@@ -19027,7 +19027,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2109032/RDCC4025/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F37D6B-5736-6D4F-9033-5904F1017381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBA97F-F41B-BB43-9517-23C3335C3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="19540" activeTab="7" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1229">
   <si>
     <t>Region</t>
   </si>
@@ -1266,12 +1264,6 @@
   </si>
   <si>
     <t>York Magistrates' Court and Family Court</t>
-  </si>
-  <si>
-    <t>Senior Tribunal Caseworker</t>
-  </si>
-  <si>
-    <t>Tribunal Caseworker</t>
   </si>
   <si>
     <t>Primary Role</t>
@@ -3728,6 +3720,15 @@
   </si>
   <si>
     <t>HMRC Caseworker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Legal Caseworker</t>
+  </si>
+  <si>
+    <t>Senior Legal Caseworker</t>
+  </si>
+  <si>
+    <t>Legal Caseworker</t>
   </si>
 </sst>
 </file>
@@ -5042,7 +5043,7 @@
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="30" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5826,7 +5827,7 @@
     <row r="29" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
       <c r="B29" s="30" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -6670,7 +6671,7 @@
     <row r="59" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" s="30" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -7548,34 +7549,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7583,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7591,15 +7592,15 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B7" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7607,15 +7608,15 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -7623,23 +7624,23 @@
         <v>54</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7647,7 +7648,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7655,7 +7656,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7663,7 +7664,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7671,7 +7672,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7679,7 +7680,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7687,7 +7688,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7695,7 +7696,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7703,7 +7704,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7711,15 +7712,15 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B22" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -7735,8 +7736,8 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O50"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7775,97 +7776,97 @@
   <sheetData>
     <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>1107</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>1109</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>54</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>1197</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="26" t="s">
         <v>1198</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="R1" s="35" t="s">
         <v>1199</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="S1" s="28" t="s">
         <v>1200</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="T1" s="38" t="s">
         <v>1201</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>1202</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="V1" s="37" t="s">
         <v>1203</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>1204</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="X1" s="37" t="s">
         <v>1205</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>1206</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Z1" s="37" t="s">
         <v>1207</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>1208</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AB1" s="37" t="s">
         <v>1209</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>1210</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AD1" s="37" t="s">
         <v>1211</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>1212</v>
-      </c>
-      <c r="AD1" s="37" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>1214</v>
       </c>
       <c r="AF1" s="37" t="s">
         <v>2</v>
@@ -7873,13 +7874,13 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>5</v>
@@ -7906,16 +7907,16 @@
         <v>52</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>409</v>
+        <v>1226</v>
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="40" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(P2,Services!$A$1:$B$45,2)),"",VLOOKUP(P2,Services!$A$1:$B$45,2))</f>
@@ -7957,18 +7958,18 @@
         <v/>
       </c>
       <c r="AF2" s="40" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>5</v>
@@ -7995,16 +7996,16 @@
         <v>52</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>409</v>
+        <v>1228</v>
       </c>
       <c r="L3" s="40"/>
       <c r="M3" s="40" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="40" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(P3,Services!$A$1:$B$45,2)),"",VLOOKUP(P3,Services!$A$1:$B$45,2))</f>
@@ -8046,18 +8047,18 @@
         <v/>
       </c>
       <c r="AF3" s="40" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>5</v>
@@ -8084,16 +8085,16 @@
         <v>52</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>409</v>
+        <v>1228</v>
       </c>
       <c r="L4" s="40"/>
       <c r="M4" s="40" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="40" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(P4,Services!$A$1:$B$45,2)),"",VLOOKUP(P4,Services!$A$1:$B$45,2))</f>
@@ -8135,7 +8136,7 @@
         <v/>
       </c>
       <c r="AF4" s="40" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -11295,7 +11296,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -11335,7 +11336,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11343,47 +11344,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11391,7 +11392,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11399,7 +11400,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11407,7 +11408,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11415,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11423,7 +11424,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11431,7 +11432,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11439,7 +11440,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11447,7 +11448,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11455,7 +11456,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11463,7 +11464,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11471,7 +11472,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11479,7 +11480,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11487,7 +11488,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11495,7 +11496,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11503,7 +11504,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11511,7 +11512,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11519,7 +11520,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11527,7 +11528,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11535,7 +11536,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11543,7 +11544,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11551,7 +11552,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11559,7 +11560,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11567,7 +11568,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11575,7 +11576,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11583,7 +11584,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11591,7 +11592,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11599,7 +11600,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11607,7 +11608,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11615,7 +11616,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -11623,7 +11624,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11631,7 +11632,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11639,7 +11640,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11647,7 +11648,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11655,7 +11656,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11663,7 +11664,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -11671,7 +11672,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -11679,7 +11680,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -11687,7 +11688,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -11720,22 +11721,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11750,10 +11751,10 @@
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11768,10 +11769,10 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11785,13 +11786,13 @@
         <v>65</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11805,13 +11806,13 @@
         <v>66</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11825,13 +11826,13 @@
         <v>66</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11845,13 +11846,13 @@
         <v>66</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>417</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11866,10 +11867,10 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11883,13 +11884,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11903,13 +11904,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11923,13 +11924,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11943,13 +11944,13 @@
         <v>65</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11963,13 +11964,13 @@
         <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11983,13 +11984,13 @@
         <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12003,13 +12004,13 @@
         <v>66</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12023,13 +12024,13 @@
         <v>65</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12043,13 +12044,13 @@
         <v>65</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12063,13 +12064,13 @@
         <v>66</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12083,13 +12084,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12103,13 +12104,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12123,13 +12124,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12143,13 +12144,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12163,13 +12164,13 @@
         <v>67</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12183,13 +12184,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12203,13 +12204,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12223,13 +12224,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12243,13 +12244,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12263,13 +12264,13 @@
         <v>5</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12283,13 +12284,13 @@
         <v>5</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12303,13 +12304,13 @@
         <v>67</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12323,13 +12324,13 @@
         <v>67</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12343,13 +12344,13 @@
         <v>67</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12363,13 +12364,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12383,13 +12384,13 @@
         <v>67</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12403,13 +12404,13 @@
         <v>67</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12424,10 +12425,10 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12441,13 +12442,13 @@
         <v>65</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12461,13 +12462,13 @@
         <v>67</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12475,19 +12476,19 @@
         <v>106</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12501,13 +12502,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12521,13 +12522,13 @@
         <v>65</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12541,13 +12542,13 @@
         <v>6</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12561,13 +12562,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12581,13 +12582,13 @@
         <v>6</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12601,13 +12602,13 @@
         <v>4</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12621,13 +12622,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12641,13 +12642,13 @@
         <v>66</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12661,13 +12662,13 @@
         <v>66</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12681,13 +12682,13 @@
         <v>66</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12701,13 +12702,13 @@
         <v>66</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12721,13 +12722,13 @@
         <v>65</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12741,13 +12742,13 @@
         <v>65</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12761,13 +12762,13 @@
         <v>65</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12781,13 +12782,13 @@
         <v>4</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12801,13 +12802,13 @@
         <v>4</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12821,13 +12822,13 @@
         <v>67</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12841,13 +12842,13 @@
         <v>67</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12861,13 +12862,13 @@
         <v>67</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12881,13 +12882,13 @@
         <v>66</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12902,10 +12903,10 @@
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12919,13 +12920,13 @@
         <v>66</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12939,13 +12940,13 @@
         <v>66</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12959,13 +12960,13 @@
         <v>66</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12979,13 +12980,13 @@
         <v>5</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12999,13 +13000,13 @@
         <v>66</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13019,13 +13020,13 @@
         <v>66</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13040,10 +13041,10 @@
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13058,10 +13059,10 @@
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13076,10 +13077,10 @@
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13094,10 +13095,10 @@
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="17" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13111,13 +13112,13 @@
         <v>67</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13131,13 +13132,13 @@
         <v>67</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13152,10 +13153,10 @@
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13169,13 +13170,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13189,13 +13190,13 @@
         <v>4</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13209,13 +13210,13 @@
         <v>4</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13229,13 +13230,13 @@
         <v>66</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13249,13 +13250,13 @@
         <v>66</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13269,13 +13270,13 @@
         <v>66</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13289,13 +13290,13 @@
         <v>65</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13309,13 +13310,13 @@
         <v>67</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13329,13 +13330,13 @@
         <v>67</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13349,13 +13350,13 @@
         <v>67</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13369,13 +13370,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13389,13 +13390,13 @@
         <v>4</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13409,13 +13410,13 @@
         <v>4</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13429,13 +13430,13 @@
         <v>66</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13449,13 +13450,13 @@
         <v>5</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13469,13 +13470,13 @@
         <v>5</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13489,13 +13490,13 @@
         <v>66</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13509,13 +13510,13 @@
         <v>67</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13529,13 +13530,13 @@
         <v>4</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13549,13 +13550,13 @@
         <v>4</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13570,10 +13571,10 @@
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13587,13 +13588,13 @@
         <v>6</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13607,13 +13608,13 @@
         <v>6</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13627,13 +13628,13 @@
         <v>66</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13647,13 +13648,13 @@
         <v>5</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13667,13 +13668,13 @@
         <v>5</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13687,13 +13688,13 @@
         <v>6</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13701,19 +13702,19 @@
         <v>167</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13727,13 +13728,13 @@
         <v>5</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13748,10 +13749,10 @@
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13765,13 +13766,13 @@
         <v>6</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13785,13 +13786,13 @@
         <v>6</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13805,13 +13806,13 @@
         <v>4</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13825,13 +13826,13 @@
         <v>66</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13845,13 +13846,13 @@
         <v>4</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13865,13 +13866,13 @@
         <v>4</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13886,10 +13887,10 @@
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="17" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13904,10 +13905,10 @@
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13920,10 +13921,10 @@
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13937,13 +13938,13 @@
         <v>4</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13957,13 +13958,13 @@
         <v>4</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13977,13 +13978,13 @@
         <v>65</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13997,13 +13998,13 @@
         <v>65</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14017,13 +14018,13 @@
         <v>4</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14037,13 +14038,13 @@
         <v>66</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14057,13 +14058,13 @@
         <v>4</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14077,13 +14078,13 @@
         <v>6</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14098,10 +14099,10 @@
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14116,10 +14117,10 @@
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14133,13 +14134,13 @@
         <v>65</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14153,13 +14154,13 @@
         <v>65</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14173,13 +14174,13 @@
         <v>66</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14193,13 +14194,13 @@
         <v>6</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14213,13 +14214,13 @@
         <v>6</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14233,13 +14234,13 @@
         <v>66</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14253,13 +14254,13 @@
         <v>66</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14274,10 +14275,10 @@
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14291,13 +14292,13 @@
         <v>4</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14311,13 +14312,13 @@
         <v>6</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14331,13 +14332,13 @@
         <v>4</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14351,13 +14352,13 @@
         <v>66</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14371,13 +14372,13 @@
         <v>66</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14391,13 +14392,13 @@
         <v>4</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14411,13 +14412,13 @@
         <v>65</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14432,10 +14433,10 @@
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14449,13 +14450,13 @@
         <v>4</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14469,13 +14470,13 @@
         <v>5</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14489,13 +14490,13 @@
         <v>5</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14509,13 +14510,13 @@
         <v>66</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14529,13 +14530,13 @@
         <v>66</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14549,13 +14550,13 @@
         <v>4</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14569,13 +14570,13 @@
         <v>66</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14589,13 +14590,13 @@
         <v>66</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14609,13 +14610,13 @@
         <v>6</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14629,13 +14630,13 @@
         <v>6</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14649,13 +14650,13 @@
         <v>6</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14669,13 +14670,13 @@
         <v>66</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14689,13 +14690,13 @@
         <v>4</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14710,10 +14711,10 @@
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14728,10 +14729,10 @@
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14745,13 +14746,13 @@
         <v>66</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14765,13 +14766,13 @@
         <v>66</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14785,13 +14786,13 @@
         <v>66</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14805,13 +14806,13 @@
         <v>65</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14825,13 +14826,13 @@
         <v>65</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14845,13 +14846,13 @@
         <v>4</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14865,13 +14866,13 @@
         <v>5</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14885,13 +14886,13 @@
         <v>66</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14905,13 +14906,13 @@
         <v>4</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14925,13 +14926,13 @@
         <v>4</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14945,13 +14946,13 @@
         <v>6</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14965,13 +14966,13 @@
         <v>6</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14985,13 +14986,13 @@
         <v>67</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15005,13 +15006,13 @@
         <v>67</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15025,13 +15026,13 @@
         <v>4</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15045,13 +15046,13 @@
         <v>4</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15065,13 +15066,13 @@
         <v>6</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15085,13 +15086,13 @@
         <v>6</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15105,13 +15106,13 @@
         <v>6</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15125,13 +15126,13 @@
         <v>6</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15145,13 +15146,13 @@
         <v>6</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15165,13 +15166,13 @@
         <v>5</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15185,13 +15186,13 @@
         <v>5</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15205,13 +15206,13 @@
         <v>5</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15225,13 +15226,13 @@
         <v>66</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15245,13 +15246,13 @@
         <v>67</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15265,13 +15266,13 @@
         <v>5</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15285,13 +15286,13 @@
         <v>5</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15305,13 +15306,13 @@
         <v>5</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15325,13 +15326,13 @@
         <v>67</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15345,13 +15346,13 @@
         <v>67</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15365,13 +15366,13 @@
         <v>67</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15386,10 +15387,10 @@
       </c>
       <c r="D186" s="14"/>
       <c r="E186" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15404,10 +15405,10 @@
       </c>
       <c r="D187" s="14"/>
       <c r="E187" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15422,10 +15423,10 @@
       </c>
       <c r="D188" s="14"/>
       <c r="E188" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15439,13 +15440,13 @@
         <v>4</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15459,13 +15460,13 @@
         <v>5</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15479,13 +15480,13 @@
         <v>66</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15499,13 +15500,13 @@
         <v>66</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15519,13 +15520,13 @@
         <v>66</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15539,13 +15540,13 @@
         <v>66</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15559,13 +15560,13 @@
         <v>66</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15579,13 +15580,13 @@
         <v>67</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15599,13 +15600,13 @@
         <v>67</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15619,13 +15620,13 @@
         <v>67</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15639,13 +15640,13 @@
         <v>67</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15659,13 +15660,13 @@
         <v>67</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15679,13 +15680,13 @@
         <v>67</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15699,13 +15700,13 @@
         <v>5</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15719,13 +15720,13 @@
         <v>66</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15740,10 +15741,10 @@
       </c>
       <c r="D204" s="14"/>
       <c r="E204" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15757,13 +15758,13 @@
         <v>66</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15777,13 +15778,13 @@
         <v>66</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15798,10 +15799,10 @@
       </c>
       <c r="D207" s="14"/>
       <c r="E207" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15815,13 +15816,13 @@
         <v>6</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15835,13 +15836,13 @@
         <v>66</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15855,13 +15856,13 @@
         <v>66</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15876,10 +15877,10 @@
       </c>
       <c r="D211" s="14"/>
       <c r="E211" s="17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15893,13 +15894,13 @@
         <v>6</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15913,13 +15914,13 @@
         <v>6</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15933,13 +15934,13 @@
         <v>6</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15953,13 +15954,13 @@
         <v>6</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15974,10 +15975,10 @@
       </c>
       <c r="D216" s="14"/>
       <c r="E216" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15992,10 +15993,10 @@
       </c>
       <c r="D217" s="14"/>
       <c r="E217" s="17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16010,10 +16011,10 @@
       </c>
       <c r="D218" s="14"/>
       <c r="E218" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16028,10 +16029,10 @@
       </c>
       <c r="D219" s="14"/>
       <c r="E219" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16045,13 +16046,13 @@
         <v>65</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16065,13 +16066,13 @@
         <v>6</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16085,13 +16086,13 @@
         <v>6</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16105,13 +16106,13 @@
         <v>65</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16125,13 +16126,13 @@
         <v>5</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16145,13 +16146,13 @@
         <v>6</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -16165,13 +16166,13 @@
         <v>5</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -16185,13 +16186,13 @@
         <v>5</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -16205,13 +16206,13 @@
         <v>5</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16225,13 +16226,13 @@
         <v>66</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F229" s="12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16245,13 +16246,13 @@
         <v>66</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16265,13 +16266,13 @@
         <v>66</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16285,13 +16286,13 @@
         <v>5</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16305,13 +16306,13 @@
         <v>5</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16325,13 +16326,13 @@
         <v>66</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F234" s="12" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16345,13 +16346,13 @@
         <v>66</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16365,13 +16366,13 @@
         <v>66</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16385,13 +16386,13 @@
         <v>66</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16405,13 +16406,13 @@
         <v>6</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F238" s="12" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16425,13 +16426,13 @@
         <v>65</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16445,13 +16446,13 @@
         <v>65</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16465,13 +16466,13 @@
         <v>65</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16486,10 +16487,10 @@
       </c>
       <c r="D242" s="14"/>
       <c r="E242" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16503,13 +16504,13 @@
         <v>65</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16524,10 +16525,10 @@
       </c>
       <c r="D244" s="14"/>
       <c r="E244" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16541,13 +16542,13 @@
         <v>65</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16561,13 +16562,13 @@
         <v>65</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16582,10 +16583,10 @@
       </c>
       <c r="D247" s="14"/>
       <c r="E247" s="17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16599,13 +16600,13 @@
         <v>67</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16619,13 +16620,13 @@
         <v>67</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16639,13 +16640,13 @@
         <v>67</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16659,13 +16660,13 @@
         <v>66</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16679,13 +16680,13 @@
         <v>66</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16699,13 +16700,13 @@
         <v>66</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16719,13 +16720,13 @@
         <v>66</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16739,13 +16740,13 @@
         <v>5</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16759,13 +16760,13 @@
         <v>67</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16779,13 +16780,13 @@
         <v>67</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16799,13 +16800,13 @@
         <v>4</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16819,13 +16820,13 @@
         <v>4</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16839,13 +16840,13 @@
         <v>4</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16860,10 +16861,10 @@
       </c>
       <c r="D261" s="8"/>
       <c r="E261" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16877,13 +16878,13 @@
         <v>65</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16897,13 +16898,13 @@
         <v>6</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16917,13 +16918,13 @@
         <v>67</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16937,13 +16938,13 @@
         <v>66</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16957,13 +16958,13 @@
         <v>6</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16977,13 +16978,13 @@
         <v>6</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16997,13 +16998,13 @@
         <v>6</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17017,13 +17018,13 @@
         <v>5</v>
       </c>
       <c r="D269" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17037,13 +17038,13 @@
         <v>6</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17057,13 +17058,13 @@
         <v>4</v>
       </c>
       <c r="D271" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17077,13 +17078,13 @@
         <v>6</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17097,13 +17098,13 @@
         <v>5</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17117,13 +17118,13 @@
         <v>65</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17137,13 +17138,13 @@
         <v>66</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17157,13 +17158,13 @@
         <v>4</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17177,13 +17178,13 @@
         <v>66</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17197,13 +17198,13 @@
         <v>66</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17217,13 +17218,13 @@
         <v>67</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17237,13 +17238,13 @@
         <v>5</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17257,13 +17258,13 @@
         <v>66</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E281" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17277,13 +17278,13 @@
         <v>66</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E282" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17298,10 +17299,10 @@
       </c>
       <c r="D283" s="14"/>
       <c r="E283" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17315,13 +17316,13 @@
         <v>67</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E284" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17335,13 +17336,13 @@
         <v>5</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E285" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17355,13 +17356,13 @@
         <v>4</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E286" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17375,13 +17376,13 @@
         <v>6</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17395,13 +17396,13 @@
         <v>4</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17416,10 +17417,10 @@
       </c>
       <c r="D289" s="14"/>
       <c r="E289" s="17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17434,10 +17435,10 @@
       </c>
       <c r="D290" s="14"/>
       <c r="E290" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17452,10 +17453,10 @@
       </c>
       <c r="D291" s="14"/>
       <c r="E291" s="17" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17469,13 +17470,13 @@
         <v>65</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E292" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17489,13 +17490,13 @@
         <v>65</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E293" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F293" s="12" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17509,13 +17510,13 @@
         <v>67</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E294" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F294" s="12" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17529,13 +17530,13 @@
         <v>65</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E295" s="17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F295" s="12" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17549,13 +17550,13 @@
         <v>65</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E296" s="17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F296" s="12" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17569,13 +17570,13 @@
         <v>4</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E297" s="17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F297" s="12" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17589,13 +17590,13 @@
         <v>6</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E298" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F298" s="12" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17609,13 +17610,13 @@
         <v>6</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E299" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F299" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17629,13 +17630,13 @@
         <v>5</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E300" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17649,13 +17650,13 @@
         <v>4</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E301" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17669,13 +17670,13 @@
         <v>65</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E302" s="17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17689,13 +17690,13 @@
         <v>65</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E303" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F303" s="12" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17709,13 +17710,13 @@
         <v>65</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F304" s="12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17729,13 +17730,13 @@
         <v>4</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E305" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17749,13 +17750,13 @@
         <v>4</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E306" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17769,13 +17770,13 @@
         <v>6</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E307" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17789,13 +17790,13 @@
         <v>5</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E308" s="17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F308" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17809,13 +17810,13 @@
         <v>5</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E309" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17829,13 +17830,13 @@
         <v>4</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E310" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17849,13 +17850,13 @@
         <v>67</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E311" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F311" s="12" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17869,13 +17870,13 @@
         <v>5</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E312" s="17" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F312" s="12" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17889,13 +17890,13 @@
         <v>5</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E313" s="17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F313" s="12" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17909,13 +17910,13 @@
         <v>66</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E314" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17929,13 +17930,13 @@
         <v>66</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E315" s="17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F315" s="12" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -17949,13 +17950,13 @@
         <v>5</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E316" s="17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F316" s="12" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17970,10 +17971,10 @@
       </c>
       <c r="D317" s="14"/>
       <c r="E317" s="17" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F317" s="12" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17987,13 +17988,13 @@
         <v>67</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E318" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F318" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18007,13 +18008,13 @@
         <v>65</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E319" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F319" s="12" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18027,13 +18028,13 @@
         <v>4</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E320" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F320" s="12" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18047,13 +18048,13 @@
         <v>4</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E321" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F321" s="12" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18067,13 +18068,13 @@
         <v>65</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E322" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F322" s="12" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18087,13 +18088,13 @@
         <v>67</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E323" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F323" s="12" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18107,13 +18108,13 @@
         <v>4</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E324" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F324" s="12" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18127,13 +18128,13 @@
         <v>4</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E325" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F325" s="12" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18147,13 +18148,13 @@
         <v>4</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E326" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F326" s="12" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18167,13 +18168,13 @@
         <v>65</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E327" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F327" s="12" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18187,13 +18188,13 @@
         <v>67</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E328" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F328" s="12" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18207,13 +18208,13 @@
         <v>5</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E329" s="17" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F329" s="12" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18227,13 +18228,13 @@
         <v>5</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E330" s="17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18247,13 +18248,13 @@
         <v>5</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E331" s="17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F331" s="12" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18267,13 +18268,13 @@
         <v>4</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E332" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F332" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18287,13 +18288,13 @@
         <v>4</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E333" s="17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F333" s="12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18307,13 +18308,13 @@
         <v>5</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E334" s="17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F334" s="12" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18327,13 +18328,13 @@
         <v>66</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E335" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F335" s="12" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -18348,10 +18349,10 @@
       </c>
       <c r="D336" s="8"/>
       <c r="E336" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F336" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18365,13 +18366,13 @@
         <v>66</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E337" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F337" s="12" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18385,13 +18386,13 @@
         <v>65</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E338" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F338" s="12" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18405,13 +18406,13 @@
         <v>6</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E339" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18425,13 +18426,13 @@
         <v>6</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E340" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F340" s="12" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18445,13 +18446,13 @@
         <v>6</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E341" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F341" s="12" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -19026,8 +19027,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19038,7 +19039,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>408</v>
+        <v>1227</v>
       </c>
       <c r="B1" s="46">
         <v>1</v>
@@ -19046,7 +19047,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
-        <v>409</v>
+        <v>1228</v>
       </c>
       <c r="B2" s="46">
         <v>2</v>
@@ -19054,7 +19055,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B3" s="46">
         <v>3</v>
@@ -19062,7 +19063,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B4" s="46">
         <v>4</v>
@@ -19070,7 +19071,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B5" s="46">
         <v>5</v>
@@ -19078,7 +19079,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B6" s="46">
         <v>6</v>
@@ -19086,7 +19087,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B7" s="46">
         <v>11</v>
@@ -19094,7 +19095,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B8" s="46">
         <v>7</v>
@@ -19102,7 +19103,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B9" s="46">
         <v>8</v>
@@ -19110,7 +19111,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B10" s="46">
         <v>9</v>
@@ -19118,7 +19119,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B11" s="46">
         <v>10</v>
@@ -19126,7 +19127,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B12" s="46">
         <v>12</v>
@@ -19134,7 +19135,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B13" s="46">
         <v>13</v>
@@ -19142,7 +19143,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B14" s="46">
         <v>14</v>
@@ -19150,7 +19151,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B15" s="46">
         <v>15</v>
@@ -19173,7 +19174,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBA97F-F41B-BB43-9517-23C3335C3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B4AE2B-945D-C84E-98E6-00CAF8209947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
-    <sheet name="Terminology" sheetId="12" r:id="rId2"/>
-    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
-    <sheet name="User Type" sheetId="9" r:id="rId4"/>
-    <sheet name="Services" sheetId="7" r:id="rId5"/>
-    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
-    <sheet name="Region" sheetId="3" r:id="rId7"/>
-    <sheet name="Roles" sheetId="4" r:id="rId8"/>
-    <sheet name="Validations" sheetId="10" r:id="rId9"/>
+    <sheet name="VERSION" sheetId="13" r:id="rId2"/>
+    <sheet name="Terminology" sheetId="12" r:id="rId3"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId4"/>
+    <sheet name="User Type" sheetId="9" r:id="rId5"/>
+    <sheet name="Services" sheetId="7" r:id="rId6"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId7"/>
+    <sheet name="Region" sheetId="3" r:id="rId8"/>
+    <sheet name="Roles" sheetId="4" r:id="rId9"/>
+    <sheet name="Validations" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1231">
   <si>
     <t>Region</t>
   </si>
@@ -3729,6 +3734,12 @@
   </si>
   <si>
     <t>Legal Caseworker</t>
+  </si>
+  <si>
+    <t>File version</t>
+  </si>
+  <si>
+    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -7530,7 +7541,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA10FA4-6A4E-CA4E-B1F2-D14F09204EE7}">
+  <dimension ref="A6:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA3DD7B-56C8-415F-8BF5-7830E7EEFD36}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -7729,14 +7788,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C96D2-347F-4382-9909-BFD50517035D}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -11270,7 +11329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55979B3E-2A8A-4780-BEB6-4F2717396A4D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11315,7 +11374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA924CA-E283-4D75-8C37-FFE0D56B674F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11697,7 +11756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EAE82-4C6E-4D34-88FC-425D89B632D4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18930,7 +18989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9252D81-E1C7-47AA-BB50-43B308C890E9}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -19020,7 +19079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175CCEB2-E456-408C-B252-200A77CE2E77}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -19160,29 +19219,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Name Longer Than 128 and Name With Invalid Character.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B4AE2B-945D-C84E-98E6-00CAF8209947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBA97F-F41B-BB43-9517-23C3335C3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
-    <sheet name="VERSION" sheetId="13" r:id="rId2"/>
-    <sheet name="Terminology" sheetId="12" r:id="rId3"/>
-    <sheet name="Staff Data" sheetId="1" r:id="rId4"/>
-    <sheet name="User Type" sheetId="9" r:id="rId5"/>
-    <sheet name="Services" sheetId="7" r:id="rId6"/>
-    <sheet name="Base Locations" sheetId="6" r:id="rId7"/>
-    <sheet name="Region" sheetId="3" r:id="rId8"/>
-    <sheet name="Roles" sheetId="4" r:id="rId9"/>
-    <sheet name="Validations" sheetId="10" r:id="rId10"/>
+    <sheet name="Terminology" sheetId="12" r:id="rId2"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
+    <sheet name="User Type" sheetId="9" r:id="rId4"/>
+    <sheet name="Services" sheetId="7" r:id="rId5"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
+    <sheet name="Region" sheetId="3" r:id="rId7"/>
+    <sheet name="Roles" sheetId="4" r:id="rId8"/>
+    <sheet name="Validations" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,11 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1229">
   <si>
     <t>Region</t>
   </si>
@@ -3734,12 +3729,6 @@
   </si>
   <si>
     <t>Legal Caseworker</t>
-  </si>
-  <si>
-    <t>File version</t>
-  </si>
-  <si>
-    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -7541,55 +7530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA10FA4-6A4E-CA4E-B1F2-D14F09204EE7}">
-  <dimension ref="A6:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA3DD7B-56C8-415F-8BF5-7830E7EEFD36}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -7788,14 +7729,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C96D2-347F-4382-9909-BFD50517035D}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -11329,7 +11270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55979B3E-2A8A-4780-BEB6-4F2717396A4D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11374,7 +11315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA924CA-E283-4D75-8C37-FFE0D56B674F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11756,7 +11697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EAE82-4C6E-4D34-88FC-425D89B632D4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -18989,7 +18930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9252D81-E1C7-47AA-BB50-43B308C890E9}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -19079,7 +19020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175CCEB2-E456-408C-B252-200A77CE2E77}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -19219,4 +19160,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>